--- a/Results-Goo.xlsx
+++ b/Results-Goo.xlsx
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1116,7 @@
         <v>22093.7</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" ref="T4:U13" si="0">H4/N4</f>
+        <f t="shared" ref="T4:U14" si="0">H4/N4</f>
         <v>37649</v>
       </c>
       <c r="U4" s="4">
@@ -1344,15 +1344,15 @@
         <v>9.9</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" ref="Q5:Q13" si="6">E5/K5</f>
+        <f t="shared" ref="Q5:Q14" si="6">E5/K5</f>
         <v>46791.3</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" ref="R5:R13" si="7">F5/L5</f>
+        <f t="shared" ref="R5:R14" si="7">F5/L5</f>
         <v>40595</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5:S13" si="8">G5/M5</f>
+        <f t="shared" ref="S5:S14" si="8">G5/M5</f>
         <v>19551.410256410258</v>
       </c>
       <c r="T5" s="4" t="e">
@@ -1364,7 +1364,7 @@
         <v>52197.233333333337</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" ref="V5:V13" si="9">J5/P5</f>
+        <f t="shared" ref="V5:V14" si="9">J5/P5</f>
         <v>37072.707070707074</v>
       </c>
       <c r="W5">
@@ -1425,27 +1425,27 @@
         <v>11.2</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO13" si="13">(AC5/AI5)</f>
+        <f t="shared" ref="AO5:AO14" si="13">(AC5/AI5)</f>
         <v>34322.473684210527</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP13" si="14">(AD5/AJ5)</f>
+        <f t="shared" ref="AP5:AP14" si="14">(AD5/AJ5)</f>
         <v>24848</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ13" si="15">(AE5/AK5)</f>
+        <f t="shared" ref="AQ5:AQ14" si="15">(AE5/AK5)</f>
         <v>23717.18918918919</v>
       </c>
       <c r="AR5" t="e">
-        <f t="shared" ref="AR5:AR13" si="16">(AF5/AL5)</f>
+        <f t="shared" ref="AR5:AR14" si="16">(AF5/AL5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS13" si="17">(AG5/AM5)</f>
+        <f t="shared" ref="AS5:AS14" si="17">(AG5/AM5)</f>
         <v>51012.81481481481</v>
       </c>
       <c r="AT5" s="3">
-        <f t="shared" ref="AT5:AT13" si="18">(AH5/AN5)</f>
+        <f t="shared" ref="AT5:AT14" si="18">(AH5/AN5)</f>
         <v>33996.571428571428</v>
       </c>
       <c r="AU5">
@@ -1464,7 +1464,7 @@
         <v>152363.9</v>
       </c>
       <c r="AZ5" s="3">
-        <f t="shared" ref="AZ5:AZ13" si="19">SUM(AU5:AY5)</f>
+        <f t="shared" ref="AZ5:AZ14" si="19">SUM(AU5:AY5)</f>
         <v>352203.19999999995</v>
       </c>
       <c r="BA5">
@@ -1483,31 +1483,31 @@
         <v>3</v>
       </c>
       <c r="BF5">
-        <f t="shared" ref="BF5:BF13" si="20">SUM(BA5:BE5)</f>
+        <f t="shared" ref="BF5:BF14" si="20">SUM(BA5:BE5)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" ref="BG5:BG13" si="21">(AU5/BA5)</f>
+        <f t="shared" ref="BG5:BG14" si="21">(AU5/BA5)</f>
         <v>27403</v>
       </c>
       <c r="BH5">
-        <f t="shared" ref="BH5:BH13" si="22">(AV5/BB5)</f>
+        <f t="shared" ref="BH5:BH14" si="22">(AV5/BB5)</f>
         <v>24848</v>
       </c>
       <c r="BI5">
-        <f t="shared" ref="BI5:BI13" si="23">(AW5/BC5)</f>
+        <f t="shared" ref="BI5:BI14" si="23">(AW5/BC5)</f>
         <v>33136.535714285717</v>
       </c>
       <c r="BJ5" t="e">
-        <f t="shared" ref="BJ5:BJ13" si="24">(AX5/BD5)</f>
+        <f t="shared" ref="BJ5:BJ14" si="24">(AX5/BD5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK5">
-        <f t="shared" ref="BK5:BK13" si="25">(AY5/BE5)</f>
+        <f t="shared" ref="BK5:BK14" si="25">(AY5/BE5)</f>
         <v>50787.966666666667</v>
       </c>
       <c r="BL5" s="3">
-        <f t="shared" ref="BL5:BL13" si="26">(AZ5/BF5)</f>
+        <f t="shared" ref="BL5:BL14" si="26">(AZ5/BF5)</f>
         <v>35939.102040816317</v>
       </c>
       <c r="BM5">
@@ -1526,7 +1526,7 @@
         <v>14.394641757011399</v>
       </c>
       <c r="BR5" s="3">
-        <f t="shared" ref="BR5:BR13" si="27">SUM(BM5:BQ5)</f>
+        <f t="shared" ref="BR5:BR14" si="27">SUM(BM5:BQ5)</f>
         <v>38.530360841751076</v>
       </c>
       <c r="BX5" s="3"/>
@@ -3410,23 +3410,23 @@
         <f t="shared" si="21"/>
         <v>34704.133333333331</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="5">
         <f t="shared" si="22"/>
         <v>34697</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" s="5">
         <f t="shared" si="23"/>
         <v>51660.322580645159</v>
       </c>
-      <c r="BJ13" t="e">
+      <c r="BJ13" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" s="5">
         <f t="shared" si="25"/>
         <v>33892.5</v>
       </c>
-      <c r="BL13" s="3">
+      <c r="BL13" s="5">
         <f t="shared" si="26"/>
         <v>40301.252747252751</v>
       </c>
@@ -3455,51 +3455,240 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14">
+        <v>747708</v>
+      </c>
       <c r="C14" s="14">
         <v>40</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18692.7</v>
+      </c>
+      <c r="E14">
+        <v>103159.1</v>
+      </c>
+      <c r="F14">
+        <v>44409</v>
+      </c>
+      <c r="G14">
+        <v>81054.2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>164862.9</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="5"/>
+        <v>393485.19999999995</v>
+      </c>
+      <c r="K14">
+        <v>3.7</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
       <c r="P14" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="6"/>
+        <v>27880.837837837837</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="7"/>
+        <v>44409</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="8"/>
+        <v>27018.066666666666</v>
+      </c>
+      <c r="T14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="0"/>
+        <v>82431.45</v>
+      </c>
       <c r="V14" s="3">
-        <f t="shared" ref="V14:V30" si="28">SUM(Q14:U14)</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="4"/>
+        <f t="shared" si="9"/>
+        <v>40565.484536082469</v>
+      </c>
+      <c r="W14">
+        <v>15.1095084667205</v>
+      </c>
+      <c r="X14">
+        <v>1.61587760448455</v>
+      </c>
+      <c r="Y14">
+        <v>14.552243542671199</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>10.102715826034499</v>
+      </c>
       <c r="AB14" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>41.380345439910748</v>
+      </c>
+      <c r="AC14">
+        <v>139046.79999999999</v>
+      </c>
+      <c r="AD14">
+        <v>28910</v>
+      </c>
+      <c r="AE14">
+        <v>76496.5</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>128962</v>
       </c>
       <c r="AH14" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="5"/>
+        <v>373415.3</v>
+      </c>
+      <c r="AI14">
+        <v>3.7</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>3</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
       <c r="AN14" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="5"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="13"/>
+        <v>37580.216216216213</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="14"/>
+        <v>28910</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="15"/>
+        <v>25498.833333333332</v>
+      </c>
+      <c r="AR14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="17"/>
+        <v>64481</v>
+      </c>
       <c r="AT14" s="3">
-        <f t="shared" ref="AT5:AT30" si="29">SUM(AO14:AS14)</f>
-        <v>0</v>
-      </c>
-      <c r="BA14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BM14" s="5"/>
-      <c r="BR14" s="3"/>
+        <f t="shared" si="18"/>
+        <v>38496.422680412375</v>
+      </c>
+      <c r="AU14">
+        <v>138936.5</v>
+      </c>
+      <c r="AV14">
+        <v>28910</v>
+      </c>
+      <c r="AW14">
+        <v>76408</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>128962</v>
+      </c>
+      <c r="AZ14" s="3">
+        <f t="shared" si="19"/>
+        <v>373216.5</v>
+      </c>
+      <c r="BA14">
+        <v>3.7</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>3</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="20"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="BG14" s="5">
+        <f t="shared" si="21"/>
+        <v>37550.405405405407</v>
+      </c>
+      <c r="BH14" s="5">
+        <f t="shared" si="22"/>
+        <v>28910</v>
+      </c>
+      <c r="BI14" s="5">
+        <f t="shared" si="23"/>
+        <v>25469.333333333332</v>
+      </c>
+      <c r="BJ14" s="5" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK14" s="5">
+        <f t="shared" si="25"/>
+        <v>64481</v>
+      </c>
+      <c r="BL14" s="5">
+        <f t="shared" si="26"/>
+        <v>38475.927835051552</v>
+      </c>
+      <c r="BM14" s="5">
+        <v>16.367153024673399</v>
+      </c>
+      <c r="BN14">
+        <v>1.59682402610778</v>
+      </c>
+      <c r="BO14">
+        <v>13.428449845314001</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>9.8194148302078208</v>
+      </c>
+      <c r="BR14" s="3">
+        <f t="shared" si="27"/>
+        <v>41.211841726303</v>
+      </c>
       <c r="BX14" s="3"/>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.25">
@@ -3526,7 +3715,7 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="V15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="V14:V30" si="28">SUM(Q15:U15)</f>
         <v>0</v>
       </c>
       <c r="W15" s="5"/>
@@ -3546,7 +3735,7 @@
       </c>
       <c r="AO15" s="5"/>
       <c r="AT15" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AT15:AT30" si="29">SUM(AO15:AS15)</f>
         <v>0</v>
       </c>
       <c r="BA15" s="5"/>

--- a/Results-Goo.xlsx
+++ b/Results-Goo.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:BX59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,27 +1425,27 @@
         <v>11.2</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO14" si="13">(AC5/AI5)</f>
+        <f t="shared" ref="AO5:AO15" si="13">(AC5/AI5)</f>
         <v>34322.473684210527</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP14" si="14">(AD5/AJ5)</f>
+        <f t="shared" ref="AP5:AP15" si="14">(AD5/AJ5)</f>
         <v>24848</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ14" si="15">(AE5/AK5)</f>
+        <f t="shared" ref="AQ5:AQ15" si="15">(AE5/AK5)</f>
         <v>23717.18918918919</v>
       </c>
       <c r="AR5" t="e">
-        <f t="shared" ref="AR5:AR14" si="16">(AF5/AL5)</f>
+        <f t="shared" ref="AR5:AR15" si="16">(AF5/AL5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS14" si="17">(AG5/AM5)</f>
+        <f t="shared" ref="AS5:AS15" si="17">(AG5/AM5)</f>
         <v>51012.81481481481</v>
       </c>
       <c r="AT5" s="3">
-        <f t="shared" ref="AT5:AT14" si="18">(AH5/AN5)</f>
+        <f t="shared" ref="AT5:AT15" si="18">(AH5/AN5)</f>
         <v>33996.571428571428</v>
       </c>
       <c r="AU5">
@@ -1464,7 +1464,7 @@
         <v>152363.9</v>
       </c>
       <c r="AZ5" s="3">
-        <f t="shared" ref="AZ5:AZ14" si="19">SUM(AU5:AY5)</f>
+        <f t="shared" ref="AZ5:AZ15" si="19">SUM(AU5:AY5)</f>
         <v>352203.19999999995</v>
       </c>
       <c r="BA5">
@@ -1483,31 +1483,31 @@
         <v>3</v>
       </c>
       <c r="BF5">
-        <f t="shared" ref="BF5:BF14" si="20">SUM(BA5:BE5)</f>
+        <f t="shared" ref="BF5:BF15" si="20">SUM(BA5:BE5)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" ref="BG5:BG14" si="21">(AU5/BA5)</f>
+        <f t="shared" ref="BG5:BG15" si="21">(AU5/BA5)</f>
         <v>27403</v>
       </c>
       <c r="BH5">
-        <f t="shared" ref="BH5:BH14" si="22">(AV5/BB5)</f>
+        <f t="shared" ref="BH5:BH15" si="22">(AV5/BB5)</f>
         <v>24848</v>
       </c>
       <c r="BI5">
-        <f t="shared" ref="BI5:BI14" si="23">(AW5/BC5)</f>
+        <f t="shared" ref="BI5:BI15" si="23">(AW5/BC5)</f>
         <v>33136.535714285717</v>
       </c>
       <c r="BJ5" t="e">
-        <f t="shared" ref="BJ5:BJ14" si="24">(AX5/BD5)</f>
+        <f t="shared" ref="BJ5:BJ15" si="24">(AX5/BD5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK5">
-        <f t="shared" ref="BK5:BK14" si="25">(AY5/BE5)</f>
+        <f t="shared" ref="BK5:BK15" si="25">(AY5/BE5)</f>
         <v>50787.966666666667</v>
       </c>
       <c r="BL5" s="3">
-        <f t="shared" ref="BL5:BL14" si="26">(AZ5/BF5)</f>
+        <f t="shared" ref="BL5:BL15" si="26">(AZ5/BF5)</f>
         <v>35939.102040816317</v>
       </c>
       <c r="BM5">
@@ -1526,7 +1526,7 @@
         <v>14.394641757011399</v>
       </c>
       <c r="BR5" s="3">
-        <f t="shared" ref="BR5:BR14" si="27">SUM(BM5:BQ5)</f>
+        <f t="shared" ref="BR5:BR15" si="27">SUM(BM5:BQ5)</f>
         <v>38.530360841751076</v>
       </c>
       <c r="BX5" s="3"/>
@@ -3695,13 +3695,15 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14">
+        <v>733752</v>
+      </c>
       <c r="C15" s="14">
         <v>40</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18343.8</v>
       </c>
       <c r="E15" s="4"/>
       <c r="J15" s="4">
@@ -3715,33 +3717,171 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="V15" s="3">
-        <f t="shared" ref="V14:V30" si="28">SUM(Q15:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="5"/>
+        <f t="shared" ref="V15:V30" si="28">SUM(Q15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>7.3110059261322</v>
+      </c>
+      <c r="X15">
+        <v>2.9127391099929798</v>
+      </c>
+      <c r="Y15">
+        <v>11.8872490882873</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>11.2433337926864</v>
+      </c>
       <c r="AB15" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="5"/>
+        <v>33.354327917098878</v>
+      </c>
+      <c r="AC15">
+        <v>97723</v>
+      </c>
+      <c r="AD15">
+        <v>48944</v>
+      </c>
+      <c r="AE15">
+        <v>80876</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>139579</v>
+      </c>
       <c r="AH15" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="5"/>
+        <v>367122</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
       <c r="AN15" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="5"/>
-      <c r="AT15" s="3">
-        <f t="shared" ref="AT15:AT30" si="29">SUM(AO15:AS15)</f>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BM15" s="5"/>
-      <c r="BR15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="13"/>
+        <v>32574.333333333332</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="14"/>
+        <v>24472</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="15"/>
+        <v>40438</v>
+      </c>
+      <c r="AR15" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="17"/>
+        <v>34894.75</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="18"/>
+        <v>33374.727272727272</v>
+      </c>
+      <c r="AU15">
+        <v>66393</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>162471</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>122710.7</v>
+      </c>
+      <c r="AZ15" s="3">
+        <f t="shared" si="19"/>
+        <v>351574.7</v>
+      </c>
+      <c r="BA15">
+        <v>4</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>4.2</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="20"/>
+        <v>11.2</v>
+      </c>
+      <c r="BG15" s="5">
+        <f t="shared" si="21"/>
+        <v>16598.25</v>
+      </c>
+      <c r="BH15" s="5" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI15" s="5">
+        <f t="shared" si="23"/>
+        <v>38683.571428571428</v>
+      </c>
+      <c r="BJ15" s="5" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK15" s="5">
+        <f t="shared" si="25"/>
+        <v>40903.566666666666</v>
+      </c>
+      <c r="BL15" s="5">
+        <f t="shared" si="26"/>
+        <v>31390.598214285717</v>
+      </c>
+      <c r="BM15">
+        <v>5.9128274440765303</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>32.423204708099298</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>7.9770816564559901</v>
+      </c>
+      <c r="BR15" s="3">
+        <f t="shared" si="27"/>
+        <v>46.313113808631826</v>
+      </c>
       <c r="BX15" s="3"/>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.25">
@@ -3788,7 +3928,7 @@
       </c>
       <c r="AO16" s="5"/>
       <c r="AT16" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AT15:AT30" si="29">SUM(AO16:AS16)</f>
         <v>0</v>
       </c>
       <c r="BA16" s="5"/>
@@ -5701,6 +5841,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="BM1:BR1"/>
     <mergeCell ref="BS1:BX1"/>
     <mergeCell ref="AC1:AH1"/>
@@ -5708,11 +5853,6 @@
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="BG1:BL1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Results-Goo.xlsx
+++ b/Results-Goo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
   <si>
     <t>Instance names</t>
   </si>
@@ -153,19 +153,43 @@
     <t>AVG simple Distance/Vehicle Numbers</t>
   </si>
   <si>
-    <t>AVG KNN Distances</t>
+    <t>AVG Worse2Worst's distances/Vehicle Numbers</t>
   </si>
   <si>
-    <t>AVG KNN CT</t>
+    <t>AVG 3-voter Vehicles</t>
   </si>
   <si>
-    <t>AVG KNN Vehicles</t>
+    <t>AVG 3-voter Distances/Vehicles</t>
   </si>
   <si>
-    <t>AVG KNN Distances/Vehicles</t>
+    <t>AVG 3-voter CT</t>
   </si>
   <si>
-    <t>AVG Worse2Worst's distances/Vehicle Numbers</t>
+    <t>AVG 3-voter Distances</t>
+  </si>
+  <si>
+    <t>AVG Final assigned Vehicles</t>
+  </si>
+  <si>
+    <t>AVG Final assigned  Distances/Vehicles</t>
+  </si>
+  <si>
+    <t>AVG Final assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG Final assigned CT</t>
+  </si>
+  <si>
+    <t>AVG Final vote assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG Final vote assigned Vehicles</t>
+  </si>
+  <si>
+    <t>AVG Final vote assigned  Distances/Vehicles</t>
+  </si>
+  <si>
+    <t>AVG Final vote assigned CT</t>
   </si>
 </sst>
 </file>
@@ -639,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX59"/>
+  <dimension ref="A1:DN59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:BX36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +674,14 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="33" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="35" max="51" width="0" hidden="1" customWidth="1"/>
+    <col min="53" max="75" width="0" hidden="1" customWidth="1"/>
+    <col min="77" max="94" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -714,7 +743,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
       <c r="AO1" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AP1" s="20"/>
       <c r="AQ1" s="20"/>
@@ -722,7 +751,7 @@
       <c r="AS1" s="20"/>
       <c r="AT1" s="20"/>
       <c r="AU1" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AV1" s="20"/>
       <c r="AW1" s="20"/>
@@ -730,7 +759,7 @@
       <c r="AY1" s="20"/>
       <c r="AZ1" s="21"/>
       <c r="BA1" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BB1" s="20"/>
       <c r="BC1" s="20"/>
@@ -738,7 +767,7 @@
       <c r="BE1" s="20"/>
       <c r="BF1" s="20"/>
       <c r="BG1" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BH1" s="20"/>
       <c r="BI1" s="20"/>
@@ -746,21 +775,79 @@
       <c r="BK1" s="20"/>
       <c r="BL1" s="20"/>
       <c r="BM1" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BN1" s="20"/>
       <c r="BO1" s="20"/>
       <c r="BP1" s="20"/>
       <c r="BQ1" s="20"/>
       <c r="BR1" s="20"/>
-      <c r="BS1" s="19"/>
+      <c r="BS1" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="BT1" s="20"/>
       <c r="BU1" s="20"/>
       <c r="BV1" s="20"/>
       <c r="BW1" s="20"/>
       <c r="BX1" s="21"/>
+      <c r="BY1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="21"/>
+      <c r="CW1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
@@ -966,14 +1053,152 @@
       <c r="BR2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="3"/>
+      <c r="BS2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="DI2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="DK2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1050,20 +1275,62 @@
       <c r="BV3" s="9"/>
       <c r="BW3" s="9"/>
       <c r="BX3" s="11"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="9"/>
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9"/>
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9"/>
+      <c r="CV3" s="11"/>
+      <c r="CW3" s="10"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="10"/>
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9"/>
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9"/>
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="10"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="12"/>
+      <c r="DM3" s="9"/>
+      <c r="DN3" s="9"/>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="16">
-        <v>728529</v>
+        <v>678347</v>
       </c>
       <c r="C4" s="1">
         <v>40</v>
       </c>
       <c r="D4" s="17">
         <f>(B4/C4)</f>
-        <v>18213.224999999999</v>
+        <v>16958.674999999999</v>
       </c>
       <c r="E4">
         <v>97711</v>
@@ -1289,21 +1556,119 @@
         <f>SUM(BM4:BQ4)</f>
         <v>32.105284595489451</v>
       </c>
-      <c r="BX4" s="13"/>
+      <c r="BS4">
+        <v>62342</v>
+      </c>
+      <c r="BT4">
+        <v>32954</v>
+      </c>
+      <c r="BU4">
+        <v>156568.79999999999</v>
+      </c>
+      <c r="BV4">
+        <v>11241</v>
+      </c>
+      <c r="BW4">
+        <v>114938</v>
+      </c>
+      <c r="BX4" s="13">
+        <f>SUM(BS4:BW4)</f>
+        <v>378043.8</v>
+      </c>
+      <c r="BY4">
+        <v>3</v>
+      </c>
+      <c r="BZ4">
+        <v>2</v>
+      </c>
+      <c r="CA4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>3</v>
+      </c>
+      <c r="CD4">
+        <f>SUM(BY4:CC4)</f>
+        <v>13.6</v>
+      </c>
+      <c r="CE4" s="5">
+        <f>BS4/BY4</f>
+        <v>20780.666666666668</v>
+      </c>
+      <c r="CF4" s="4">
+        <f t="shared" ref="CF4:CI4" si="3">BT4/BZ4</f>
+        <v>16477</v>
+      </c>
+      <c r="CG4" s="4">
+        <f t="shared" si="3"/>
+        <v>34036.695652173912</v>
+      </c>
+      <c r="CH4" s="4">
+        <f t="shared" si="3"/>
+        <v>11241</v>
+      </c>
+      <c r="CI4" s="4">
+        <f t="shared" si="3"/>
+        <v>38312.666666666664</v>
+      </c>
+      <c r="CJ4" s="4">
+        <f>BX4/CD4</f>
+        <v>27797.338235294119</v>
+      </c>
+      <c r="CK4">
+        <v>4.4659114360809298</v>
+      </c>
+      <c r="CL4">
+        <v>2.78907551765441</v>
+      </c>
+      <c r="CM4">
+        <v>23.4386201381683</v>
+      </c>
+      <c r="CN4">
+        <v>1.1528434276580799</v>
+      </c>
+      <c r="CO4">
+        <v>7.1468550443649201</v>
+      </c>
+      <c r="CP4" s="13">
+        <f>SUM(CK4:CO4)</f>
+        <v>38.99330556392664</v>
+      </c>
+      <c r="CQ4" s="1"/>
+      <c r="CV4" s="13">
+        <f>SUM(CQ4:CU4)</f>
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <f>SUM(CW4:DA4)</f>
+        <v>0</v>
+      </c>
+      <c r="DC4" s="1"/>
+      <c r="DH4" s="13" t="e">
+        <f>(CP4/DB4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DN4" s="13">
+        <f>SUM(DI4:DM4)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="14">
-        <v>650826</v>
+        <v>619344</v>
       </c>
       <c r="C5" s="14">
         <v>40</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" ref="D5:D30" si="3">(B5/C5)</f>
-        <v>16270.65</v>
+        <f t="shared" ref="D5:D30" si="4">(B5/C5)</f>
+        <v>15483.6</v>
       </c>
       <c r="E5">
         <v>93582.6</v>
@@ -1321,7 +1686,7 @@
         <v>156591.70000000001</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J31" si="4">SUM(E5:I5)</f>
+        <f t="shared" ref="J5:J31" si="5">SUM(E5:I5)</f>
         <v>367019.80000000005</v>
       </c>
       <c r="K5" s="5">
@@ -1340,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P30" si="5">SUM(K5:O5)</f>
+        <f t="shared" ref="P5:P30" si="6">SUM(K5:O5)</f>
         <v>9.9</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" ref="Q5:Q14" si="6">E5/K5</f>
+        <f t="shared" ref="Q5:Q14" si="7">E5/K5</f>
         <v>46791.3</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" ref="R5:R14" si="7">F5/L5</f>
+        <f t="shared" ref="R5:R14" si="8">F5/L5</f>
         <v>40595</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5:S14" si="8">G5/M5</f>
+        <f t="shared" ref="S5:S14" si="9">G5/M5</f>
         <v>19551.410256410258</v>
       </c>
       <c r="T5" s="4" t="e">
@@ -1364,7 +1729,7 @@
         <v>52197.233333333337</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" ref="V5:V14" si="9">J5/P5</f>
+        <f t="shared" ref="V5:V15" si="10">J5/P5</f>
         <v>37072.707070707074</v>
       </c>
       <c r="W5">
@@ -1383,7 +1748,7 @@
         <v>10.2579130887985</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB30" si="10">SUM(W5:AA5)</f>
+        <f t="shared" ref="AB5:AB30" si="11">SUM(W5:AA5)</f>
         <v>40.173959207534651</v>
       </c>
       <c r="AC5">
@@ -1402,7 +1767,7 @@
         <v>137734.6</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" ref="V5:AH31" si="11">SUM(AC5:AG5)</f>
+        <f t="shared" ref="V5:AH31" si="12">SUM(AC5:AG5)</f>
         <v>380761.59999999998</v>
       </c>
       <c r="AI5">
@@ -1421,31 +1786,31 @@
         <v>2.7</v>
       </c>
       <c r="AN5" s="3">
-        <f t="shared" ref="AN5:AN30" si="12">SUM(AI5:AM5)</f>
+        <f t="shared" ref="AN5:AN30" si="13">SUM(AI5:AM5)</f>
         <v>11.2</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO15" si="13">(AC5/AI5)</f>
+        <f t="shared" ref="AO5:AO15" si="14">(AC5/AI5)</f>
         <v>34322.473684210527</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP15" si="14">(AD5/AJ5)</f>
+        <f t="shared" ref="AP5:AP15" si="15">(AD5/AJ5)</f>
         <v>24848</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ15" si="15">(AE5/AK5)</f>
+        <f t="shared" ref="AQ5:AQ15" si="16">(AE5/AK5)</f>
         <v>23717.18918918919</v>
       </c>
       <c r="AR5" t="e">
-        <f t="shared" ref="AR5:AR15" si="16">(AF5/AL5)</f>
+        <f t="shared" ref="AR5:AR15" si="17">(AF5/AL5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS15" si="17">(AG5/AM5)</f>
+        <f t="shared" ref="AS5:AS15" si="18">(AG5/AM5)</f>
         <v>51012.81481481481</v>
       </c>
       <c r="AT5" s="3">
-        <f t="shared" ref="AT5:AT15" si="18">(AH5/AN5)</f>
+        <f t="shared" ref="AT5:AT15" si="19">(AH5/AN5)</f>
         <v>33996.571428571428</v>
       </c>
       <c r="AU5">
@@ -1464,7 +1829,7 @@
         <v>152363.9</v>
       </c>
       <c r="AZ5" s="3">
-        <f t="shared" ref="AZ5:AZ15" si="19">SUM(AU5:AY5)</f>
+        <f t="shared" ref="AZ5:AZ15" si="20">SUM(AU5:AY5)</f>
         <v>352203.19999999995</v>
       </c>
       <c r="BA5">
@@ -1483,31 +1848,31 @@
         <v>3</v>
       </c>
       <c r="BF5">
-        <f t="shared" ref="BF5:BF15" si="20">SUM(BA5:BE5)</f>
+        <f t="shared" ref="BF5:BF15" si="21">SUM(BA5:BE5)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" ref="BG5:BG15" si="21">(AU5/BA5)</f>
+        <f t="shared" ref="BG5:BG15" si="22">(AU5/BA5)</f>
         <v>27403</v>
       </c>
       <c r="BH5">
-        <f t="shared" ref="BH5:BH15" si="22">(AV5/BB5)</f>
+        <f t="shared" ref="BH5:BH15" si="23">(AV5/BB5)</f>
         <v>24848</v>
       </c>
       <c r="BI5">
-        <f t="shared" ref="BI5:BI15" si="23">(AW5/BC5)</f>
+        <f t="shared" ref="BI5:BI15" si="24">(AW5/BC5)</f>
         <v>33136.535714285717</v>
       </c>
       <c r="BJ5" t="e">
-        <f t="shared" ref="BJ5:BJ15" si="24">(AX5/BD5)</f>
+        <f t="shared" ref="BJ5:BJ15" si="25">(AX5/BD5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK5">
-        <f t="shared" ref="BK5:BK15" si="25">(AY5/BE5)</f>
+        <f t="shared" ref="BK5:BK15" si="26">(AY5/BE5)</f>
         <v>50787.966666666667</v>
       </c>
       <c r="BL5" s="3">
-        <f t="shared" ref="BL5:BL15" si="26">(AZ5/BF5)</f>
+        <f t="shared" ref="BL5:BL15" si="27">(AZ5/BF5)</f>
         <v>35939.102040816317</v>
       </c>
       <c r="BM5">
@@ -1526,24 +1891,123 @@
         <v>14.394641757011399</v>
       </c>
       <c r="BR5" s="3">
-        <f t="shared" ref="BR5:BR15" si="27">SUM(BM5:BQ5)</f>
+        <f t="shared" ref="BR5:BR15" si="28">SUM(BM5:BQ5)</f>
         <v>38.530360841751076</v>
       </c>
-      <c r="BX5" s="3"/>
+      <c r="BS5">
+        <v>87801</v>
+      </c>
+      <c r="BT5">
+        <v>67491</v>
+      </c>
+      <c r="BU5">
+        <v>105191</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>104948</v>
+      </c>
+      <c r="BX5" s="3">
+        <f t="shared" ref="BX5:BX15" si="29">SUM(BS5:BW5)</f>
+        <v>365431</v>
+      </c>
+      <c r="BY5">
+        <v>3</v>
+      </c>
+      <c r="BZ5">
+        <v>2</v>
+      </c>
+      <c r="CA5">
+        <v>4</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>3</v>
+      </c>
+      <c r="CD5">
+        <f t="shared" ref="CD5:CD15" si="30">SUM(BY5:CC5)</f>
+        <v>12</v>
+      </c>
+      <c r="CE5" s="5">
+        <f t="shared" ref="CE5:CE8" si="31">BS5/BY5</f>
+        <v>29267</v>
+      </c>
+      <c r="CF5" s="4">
+        <f t="shared" ref="CF5:CF8" si="32">BT5/BZ5</f>
+        <v>33745.5</v>
+      </c>
+      <c r="CG5" s="4">
+        <f t="shared" ref="CG5:CG8" si="33">BU5/CA5</f>
+        <v>26297.75</v>
+      </c>
+      <c r="CH5" s="4" t="e">
+        <f t="shared" ref="CH5:CH8" si="34">BV5/CB5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI5" s="4">
+        <f t="shared" ref="CI5:CI8" si="35">BW5/CC5</f>
+        <v>34982.666666666664</v>
+      </c>
+      <c r="CJ5" s="4">
+        <f t="shared" ref="CJ5:CJ15" si="36">BX5/CD5</f>
+        <v>30452.583333333332</v>
+      </c>
+      <c r="CK5">
+        <v>9.8962912321090695</v>
+      </c>
+      <c r="CL5">
+        <v>4.6336964368820102</v>
+      </c>
+      <c r="CM5">
+        <v>10.935893225669799</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>9.3303527832031197</v>
+      </c>
+      <c r="CP5" s="3">
+        <f t="shared" ref="CP5:CP15" si="37">SUM(CK5:CO5)</f>
+        <v>34.796233677863995</v>
+      </c>
+      <c r="CQ5" s="5"/>
+      <c r="CV5" s="3">
+        <f t="shared" ref="CV5:CV15" si="38">SUM(CQ5:CU5)</f>
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <f t="shared" ref="DB5:DB15" si="39">SUM(CW5:DA5)</f>
+        <v>0</v>
+      </c>
+      <c r="DC5" s="5"/>
+      <c r="DH5" s="4" t="e">
+        <f t="shared" ref="DH5:DH15" si="40">(CP5/DB5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI5" s="5"/>
+      <c r="DN5" s="3">
+        <f t="shared" ref="DN5:DN15" si="41">SUM(DI5:DM5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14">
-        <v>659707</v>
+        <v>602669</v>
       </c>
       <c r="C6" s="14">
         <v>40</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="3"/>
-        <v>16492.674999999999</v>
+        <f t="shared" si="4"/>
+        <v>15066.725</v>
       </c>
       <c r="E6">
         <v>109911.8</v>
@@ -1561,7 +2025,7 @@
         <v>99220</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374218.8</v>
       </c>
       <c r="K6" s="5">
@@ -1580,19 +2044,19 @@
         <v>3</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.6</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30531.055555555555</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34559</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23992.25</v>
       </c>
       <c r="T6" s="4" t="e">
@@ -1604,7 +2068,7 @@
         <v>33073.333333333336</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29699.904761904763</v>
       </c>
       <c r="W6">
@@ -1623,7 +2087,7 @@
         <v>8.2342022180557208</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35.703785705566304</v>
       </c>
       <c r="AC6">
@@ -1642,7 +2106,7 @@
         <v>92734</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>369570</v>
       </c>
       <c r="AI6">
@@ -1661,31 +2125,31 @@
         <v>3</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29267</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33745.5</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40514.666666666664</v>
       </c>
       <c r="AR6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30911.333333333332</v>
       </c>
       <c r="AT6" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33597.272727272728</v>
       </c>
       <c r="AU6">
@@ -1704,7 +2168,7 @@
         <v>78985</v>
       </c>
       <c r="AZ6" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>371563.3</v>
       </c>
       <c r="BA6">
@@ -1723,31 +2187,31 @@
         <v>4</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="BG6" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29267</v>
       </c>
       <c r="BH6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>54693</v>
       </c>
       <c r="BI6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37521.074999999997</v>
       </c>
       <c r="BJ6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>19746.25</v>
       </c>
       <c r="BL6" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>30963.608333333334</v>
       </c>
       <c r="BM6">
@@ -1766,24 +2230,123 @@
         <v>6.9183015108108501</v>
       </c>
       <c r="BR6" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>33.881284832954321</v>
       </c>
-      <c r="BX6" s="3"/>
+      <c r="BS6">
+        <v>92013.7</v>
+      </c>
+      <c r="BT6">
+        <v>24594</v>
+      </c>
+      <c r="BU6">
+        <v>142841.60000000001</v>
+      </c>
+      <c r="BV6">
+        <v>46555</v>
+      </c>
+      <c r="BW6">
+        <v>48347</v>
+      </c>
+      <c r="BX6" s="3">
+        <f t="shared" si="29"/>
+        <v>354351.3</v>
+      </c>
+      <c r="BY6">
+        <v>2.5</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>3.7</v>
+      </c>
+      <c r="CB6">
+        <v>2</v>
+      </c>
+      <c r="CC6">
+        <v>2</v>
+      </c>
+      <c r="CD6">
+        <f t="shared" si="30"/>
+        <v>11.2</v>
+      </c>
+      <c r="CE6" s="5">
+        <f t="shared" si="31"/>
+        <v>36805.479999999996</v>
+      </c>
+      <c r="CF6" s="4">
+        <f t="shared" si="32"/>
+        <v>24594</v>
+      </c>
+      <c r="CG6" s="4">
+        <f t="shared" si="33"/>
+        <v>38605.83783783784</v>
+      </c>
+      <c r="CH6" s="4">
+        <f t="shared" si="34"/>
+        <v>23277.5</v>
+      </c>
+      <c r="CI6" s="4">
+        <f t="shared" si="35"/>
+        <v>24173.5</v>
+      </c>
+      <c r="CJ6" s="4">
+        <f t="shared" si="36"/>
+        <v>31638.508928571431</v>
+      </c>
+      <c r="CK6">
+        <v>10.2209987878799</v>
+      </c>
+      <c r="CL6">
+        <v>1.5961763381958001</v>
+      </c>
+      <c r="CM6">
+        <v>24.863498139381399</v>
+      </c>
+      <c r="CN6">
+        <v>3.94127295017242</v>
+      </c>
+      <c r="CO6">
+        <v>2.51900899410247</v>
+      </c>
+      <c r="CP6" s="3">
+        <f t="shared" si="37"/>
+        <v>43.140955209731992</v>
+      </c>
+      <c r="CQ6" s="5"/>
+      <c r="CV6" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC6" s="5"/>
+      <c r="DH6" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI6" s="5"/>
+      <c r="DN6" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="14">
-        <v>705140</v>
+        <v>676089</v>
       </c>
       <c r="C7" s="14">
         <v>40</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="3"/>
-        <v>17628.5</v>
+        <f t="shared" si="4"/>
+        <v>16902.224999999999</v>
       </c>
       <c r="E7">
         <v>82368.800000000003</v>
@@ -1801,7 +2364,7 @@
         <v>113354</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>338473</v>
       </c>
       <c r="K7" s="5">
@@ -1820,19 +2383,19 @@
         <v>3</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41184.400000000001</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42438</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26224.399999999998</v>
       </c>
       <c r="T7" s="4">
@@ -1844,7 +2407,7 @@
         <v>37784.666666666664</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33847.300000000003</v>
       </c>
       <c r="W7">
@@ -1863,7 +2426,7 @@
         <v>2.46813089847564</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40.581182432174593</v>
       </c>
       <c r="AC7">
@@ -1882,7 +2445,7 @@
         <v>48347</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>354416.3</v>
       </c>
       <c r="AI7">
@@ -1901,31 +2464,31 @@
         <v>2</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.5</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32763.178571428572</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24594</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38698.216216216213</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23277.5</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24173.5</v>
       </c>
       <c r="AT7" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30818.808695652173</v>
       </c>
       <c r="AU7">
@@ -1944,7 +2507,7 @@
         <v>43586</v>
       </c>
       <c r="AZ7" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>306296.90000000002</v>
       </c>
       <c r="BA7">
@@ -1963,31 +2526,31 @@
         <v>2</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.5</v>
       </c>
       <c r="BG7" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34571</v>
       </c>
       <c r="BH7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35194.345454545452</v>
       </c>
       <c r="BJ7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>21793</v>
       </c>
       <c r="BL7" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>32241.778947368424</v>
       </c>
       <c r="BM7">
@@ -2006,24 +2569,123 @@
         <v>3.37500913143157</v>
       </c>
       <c r="BR7" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>47.945712590217582</v>
       </c>
-      <c r="BX7" s="3"/>
+      <c r="BS7">
+        <v>112656</v>
+      </c>
+      <c r="BT7">
+        <v>22175</v>
+      </c>
+      <c r="BU7">
+        <v>120705.60000000001</v>
+      </c>
+      <c r="BV7">
+        <v>15541</v>
+      </c>
+      <c r="BW7">
+        <v>115098</v>
+      </c>
+      <c r="BX7" s="3">
+        <f t="shared" si="29"/>
+        <v>386175.6</v>
+      </c>
+      <c r="BY7">
+        <v>2</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>3</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>2</v>
+      </c>
+      <c r="CD7">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="CE7" s="5">
+        <f t="shared" si="31"/>
+        <v>56328</v>
+      </c>
+      <c r="CF7" s="4">
+        <f t="shared" si="32"/>
+        <v>22175</v>
+      </c>
+      <c r="CG7" s="4">
+        <f t="shared" si="33"/>
+        <v>40235.200000000004</v>
+      </c>
+      <c r="CH7" s="4">
+        <f t="shared" si="34"/>
+        <v>15541</v>
+      </c>
+      <c r="CI7" s="4">
+        <f t="shared" si="35"/>
+        <v>57549</v>
+      </c>
+      <c r="CJ7" s="4">
+        <f t="shared" si="36"/>
+        <v>42908.399999999994</v>
+      </c>
+      <c r="CK7">
+        <v>9.1527351856231594</v>
+      </c>
+      <c r="CL7">
+        <v>1.1547790050506499</v>
+      </c>
+      <c r="CM7">
+        <v>24.158268356323202</v>
+      </c>
+      <c r="CN7">
+        <v>1.5284172534942599</v>
+      </c>
+      <c r="CO7">
+        <v>5.6956154108047397</v>
+      </c>
+      <c r="CP7" s="3">
+        <f t="shared" si="37"/>
+        <v>41.689815211296015</v>
+      </c>
+      <c r="CQ7" s="5"/>
+      <c r="CV7" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC7" s="5"/>
+      <c r="DH7" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI7" s="5"/>
+      <c r="DN7" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>692098</v>
+        <v>667559</v>
       </c>
       <c r="C8" s="14">
         <v>40</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" si="3"/>
-        <v>17302.45</v>
+        <f t="shared" si="4"/>
+        <v>16688.974999999999</v>
       </c>
       <c r="E8">
         <v>128631.6</v>
@@ -2041,7 +2703,7 @@
         <v>91019</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374888.6</v>
       </c>
       <c r="K8" s="5">
@@ -2060,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.9</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44355.724137931036</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23937</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22955.75</v>
       </c>
       <c r="T8" s="4">
@@ -2084,7 +2746,7 @@
         <v>45509.5</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31503.243697478989</v>
       </c>
       <c r="W8">
@@ -2103,7 +2765,7 @@
         <v>5.1830036878585801</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36.982171201705832</v>
       </c>
       <c r="AC8">
@@ -2122,7 +2784,7 @@
         <v>115098</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>386313.3</v>
       </c>
       <c r="AI8">
@@ -2141,31 +2803,31 @@
         <v>2</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>56328</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22175</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40281.1</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15541</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>57549</v>
       </c>
       <c r="AT8" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42923.7</v>
       </c>
       <c r="AU8">
@@ -2184,7 +2846,7 @@
         <v>86148</v>
       </c>
       <c r="AZ8" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>374972.3</v>
       </c>
       <c r="BA8">
@@ -2203,31 +2865,31 @@
         <v>2</v>
       </c>
       <c r="BF8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.1</v>
       </c>
       <c r="BG8" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>36273</v>
       </c>
       <c r="BH8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22175</v>
       </c>
       <c r="BI8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>43551.780487804877</v>
       </c>
       <c r="BJ8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15541</v>
       </c>
       <c r="BK8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>43074</v>
       </c>
       <c r="BL8" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>37125.9702970297</v>
       </c>
       <c r="BM8">
@@ -2246,24 +2908,123 @@
         <v>3.5062097787857001</v>
       </c>
       <c r="BR8" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>142.31747775077753</v>
       </c>
-      <c r="BX8" s="3"/>
+      <c r="BS8">
+        <v>70403.7</v>
+      </c>
+      <c r="BT8">
+        <v>76009</v>
+      </c>
+      <c r="BU8">
+        <v>116972</v>
+      </c>
+      <c r="BV8">
+        <v>13305</v>
+      </c>
+      <c r="BW8">
+        <v>111370</v>
+      </c>
+      <c r="BX8" s="3">
+        <f t="shared" si="29"/>
+        <v>388059.7</v>
+      </c>
+      <c r="BY8">
+        <v>3.3</v>
+      </c>
+      <c r="BZ8">
+        <v>2</v>
+      </c>
+      <c r="CA8">
+        <v>3</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>3</v>
+      </c>
+      <c r="CD8">
+        <f t="shared" si="30"/>
+        <v>12.3</v>
+      </c>
+      <c r="CE8" s="5">
+        <f t="shared" si="31"/>
+        <v>21334.454545454544</v>
+      </c>
+      <c r="CF8" s="5">
+        <f t="shared" si="32"/>
+        <v>38004.5</v>
+      </c>
+      <c r="CG8" s="5">
+        <f t="shared" si="33"/>
+        <v>38990.666666666664</v>
+      </c>
+      <c r="CH8" s="5">
+        <f t="shared" si="34"/>
+        <v>13305</v>
+      </c>
+      <c r="CI8" s="5">
+        <f t="shared" si="35"/>
+        <v>37123.333333333336</v>
+      </c>
+      <c r="CJ8" s="4">
+        <f t="shared" si="36"/>
+        <v>31549.569105691055</v>
+      </c>
+      <c r="CK8">
+        <v>8.8399614095687795</v>
+      </c>
+      <c r="CL8">
+        <v>4.59515991210937</v>
+      </c>
+      <c r="CM8">
+        <v>13.0503684282302</v>
+      </c>
+      <c r="CN8">
+        <v>1.2129016399383501</v>
+      </c>
+      <c r="CO8">
+        <v>6.2964699268341002</v>
+      </c>
+      <c r="CP8" s="3">
+        <f t="shared" si="37"/>
+        <v>33.994861316680804</v>
+      </c>
+      <c r="CQ8" s="5"/>
+      <c r="CV8" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC8" s="5"/>
+      <c r="DH8" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI8" s="5"/>
+      <c r="DN8" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="14">
-        <v>781071</v>
+        <v>737831</v>
       </c>
       <c r="C9" s="14">
         <v>40</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="3"/>
-        <v>19526.775000000001</v>
+        <f t="shared" si="4"/>
+        <v>18445.775000000001</v>
       </c>
       <c r="E9">
         <v>122663.4</v>
@@ -2281,7 +3042,7 @@
         <v>97287</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>398350</v>
       </c>
       <c r="K9" s="5">
@@ -2300,19 +3061,19 @@
         <v>2</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30665.85</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29441</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35404.200000000004</v>
       </c>
       <c r="T9" s="4">
@@ -2324,7 +3085,7 @@
         <v>48643.5</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33195.833333333336</v>
       </c>
       <c r="W9">
@@ -2343,7 +3104,7 @@
         <v>5.3553197145461997</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.855096769332789</v>
       </c>
       <c r="AC9">
@@ -2362,7 +3123,7 @@
         <v>111370</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>388546.2</v>
       </c>
       <c r="AI9">
@@ -2381,31 +3142,31 @@
         <v>3</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.1</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22867.77419354839</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38004.5</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38990.700000000004</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13305</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37123.333333333336</v>
       </c>
       <c r="AT9" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32111.25619834711</v>
       </c>
       <c r="AU9">
@@ -2424,7 +3185,7 @@
         <v>88570</v>
       </c>
       <c r="AZ9" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>371712.9</v>
       </c>
       <c r="BA9">
@@ -2443,31 +3204,31 @@
         <v>2</v>
       </c>
       <c r="BF9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.1</v>
       </c>
       <c r="BG9" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>22693.516129032254</v>
       </c>
       <c r="BH9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22102</v>
       </c>
       <c r="BI9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>42147.25</v>
       </c>
       <c r="BJ9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>44285</v>
       </c>
       <c r="BL9" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>33487.648648648654</v>
       </c>
       <c r="BM9">
@@ -2486,24 +3247,123 @@
         <v>4.6642918825149504</v>
       </c>
       <c r="BR9" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>43.964445281028723</v>
       </c>
-      <c r="BX9" s="3"/>
+      <c r="BS9">
+        <v>99242</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>132649.70000000001</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>152544.29999999999</v>
+      </c>
+      <c r="BX9" s="3">
+        <f t="shared" si="29"/>
+        <v>384436</v>
+      </c>
+      <c r="BY9">
+        <v>2</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>3.7</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="CD9">
+        <f t="shared" si="30"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="CE9" s="5">
+        <f t="shared" ref="CE9:CE15" si="42">BS9/BY9</f>
+        <v>49621</v>
+      </c>
+      <c r="CF9" s="5" t="e">
+        <f t="shared" ref="CF9:CF15" si="43">BT9/BZ9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG9" s="5">
+        <f t="shared" ref="CG9:CG15" si="44">BU9/CA9</f>
+        <v>35851.270270270274</v>
+      </c>
+      <c r="CH9" s="5" t="e">
+        <f t="shared" ref="CH9:CH15" si="45">BV9/CB9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI9" s="5">
+        <f t="shared" ref="CI9:CI15" si="46">BW9/CC9</f>
+        <v>31131.489795918362</v>
+      </c>
+      <c r="CJ9" s="3">
+        <f t="shared" si="36"/>
+        <v>36267.547169811318</v>
+      </c>
+      <c r="CK9">
+        <v>7.8073833227157596</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>16.971246862411402</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>13.1108043909072</v>
+      </c>
+      <c r="CP9" s="3">
+        <f t="shared" si="37"/>
+        <v>37.889434576034361</v>
+      </c>
+      <c r="CQ9" s="5"/>
+      <c r="CV9" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC9" s="5"/>
+      <c r="DH9" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI9" s="5"/>
+      <c r="DN9" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>627448</v>
+        <v>598118</v>
       </c>
       <c r="C10" s="14">
         <v>40</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" si="3"/>
-        <v>15686.2</v>
+        <f t="shared" si="4"/>
+        <v>14952.95</v>
       </c>
       <c r="E10">
         <v>130571</v>
@@ -2521,7 +3381,7 @@
         <v>141420</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>411702</v>
       </c>
       <c r="K10" s="5">
@@ -2540,19 +3400,19 @@
         <v>3</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43523.666666666664</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53362</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21587.25</v>
       </c>
       <c r="T10" s="4" t="e">
@@ -2564,7 +3424,7 @@
         <v>47140</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37427.454545454544</v>
       </c>
       <c r="W10">
@@ -2583,7 +3443,7 @@
         <v>13.228162860870301</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34.361502480506779</v>
       </c>
       <c r="AC10">
@@ -2602,7 +3462,7 @@
         <v>161670.5</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>389909.5</v>
       </c>
       <c r="AI10">
@@ -2621,31 +3481,31 @@
         <v>3.8</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47264.28571428571</v>
       </c>
       <c r="AP10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32246</v>
       </c>
       <c r="AR10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42544.868421052633</v>
       </c>
       <c r="AT10" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39384.797979797986</v>
       </c>
       <c r="AU10">
@@ -2664,7 +3524,7 @@
         <v>166606.20000000001</v>
       </c>
       <c r="AZ10" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>404009.80000000005</v>
       </c>
       <c r="BA10">
@@ -2683,31 +3543,31 @@
         <v>3.8</v>
       </c>
       <c r="BF10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.100000000000001</v>
       </c>
       <c r="BG10" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>46540.541666666672</v>
       </c>
       <c r="BH10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25654.34693877551</v>
       </c>
       <c r="BJ10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>43843.736842105267</v>
       </c>
       <c r="BL10" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>36397.279279279275</v>
       </c>
       <c r="BM10">
@@ -2726,24 +3586,123 @@
         <v>11.804576349258401</v>
       </c>
       <c r="BR10" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>39.206452560424701</v>
       </c>
-      <c r="BX10" s="3"/>
+      <c r="BS10">
+        <v>64075</v>
+      </c>
+      <c r="BT10">
+        <v>51594</v>
+      </c>
+      <c r="BU10">
+        <v>69866</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>119308</v>
+      </c>
+      <c r="BX10" s="3">
+        <f t="shared" si="29"/>
+        <v>304843</v>
+      </c>
+      <c r="BY10">
+        <v>2</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>2</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>3</v>
+      </c>
+      <c r="CD10">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="CE10" s="5">
+        <f t="shared" si="42"/>
+        <v>32037.5</v>
+      </c>
+      <c r="CF10" s="5">
+        <f t="shared" si="43"/>
+        <v>51594</v>
+      </c>
+      <c r="CG10" s="5">
+        <f t="shared" si="44"/>
+        <v>34933</v>
+      </c>
+      <c r="CH10" s="5" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI10" s="5">
+        <f t="shared" si="46"/>
+        <v>39769.333333333336</v>
+      </c>
+      <c r="CJ10" s="13">
+        <f t="shared" si="36"/>
+        <v>38105.375</v>
+      </c>
+      <c r="CK10">
+        <v>6.8691866397857604</v>
+      </c>
+      <c r="CL10">
+        <v>3.0188494443893399</v>
+      </c>
+      <c r="CM10">
+        <v>17.964353466033899</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>12.3501398324966</v>
+      </c>
+      <c r="CP10" s="3">
+        <f t="shared" si="37"/>
+        <v>40.202529382705599</v>
+      </c>
+      <c r="CQ10" s="5"/>
+      <c r="CV10" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC10" s="5"/>
+      <c r="DH10" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI10" s="5"/>
+      <c r="DN10" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="14">
-        <v>639390</v>
+        <v>610706</v>
       </c>
       <c r="C11" s="14">
         <v>40</v>
       </c>
       <c r="D11" s="17">
-        <f t="shared" si="3"/>
-        <v>15984.75</v>
+        <f t="shared" si="4"/>
+        <v>15267.65</v>
       </c>
       <c r="E11">
         <v>104950</v>
@@ -2761,7 +3720,7 @@
         <v>111541.3</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>335625.2</v>
       </c>
       <c r="K11" s="5">
@@ -2780,19 +3739,19 @@
         <v>2.5</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.4</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34983.333333333336</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27819.5</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21894.793103448275</v>
       </c>
       <c r="T11" s="4" t="e">
@@ -2804,7 +3763,7 @@
         <v>44616.520000000004</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32271.653846153848</v>
       </c>
       <c r="W11">
@@ -2823,7 +3782,7 @@
         <v>13.4980149507522</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41.449268984794521</v>
       </c>
       <c r="AC11">
@@ -2842,7 +3801,7 @@
         <v>119308</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>304679.59999999998</v>
       </c>
       <c r="AI11">
@@ -2861,31 +3820,31 @@
         <v>3</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31955.8</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51594</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34933</v>
       </c>
       <c r="AR11" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39769.333333333336</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38084.949999999997</v>
       </c>
       <c r="AU11">
@@ -2904,7 +3863,7 @@
         <v>63372.7</v>
       </c>
       <c r="AZ11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>318060.90000000002</v>
       </c>
       <c r="BA11">
@@ -2923,31 +3882,31 @@
         <v>2</v>
       </c>
       <c r="BF11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.1</v>
       </c>
       <c r="BG11" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>38276.799999999996</v>
       </c>
       <c r="BH11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15356</v>
       </c>
       <c r="BI11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>40161.870967741932</v>
       </c>
       <c r="BJ11" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>31686.35</v>
       </c>
       <c r="BL11" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>34951.747252747256</v>
       </c>
       <c r="BM11">
@@ -2966,24 +3925,123 @@
         <v>5.3942816972732501</v>
       </c>
       <c r="BR11" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>46.582948637008563</v>
       </c>
-      <c r="BX11" s="3"/>
+      <c r="BS11">
+        <v>115648</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>114691.3</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>117496</v>
+      </c>
+      <c r="BX11" s="3">
+        <f t="shared" si="29"/>
+        <v>347835.3</v>
+      </c>
+      <c r="BY11">
+        <v>2</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>3.2</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>2</v>
+      </c>
+      <c r="CD11">
+        <f t="shared" si="30"/>
+        <v>7.2</v>
+      </c>
+      <c r="CE11" s="5">
+        <f t="shared" si="42"/>
+        <v>57824</v>
+      </c>
+      <c r="CF11" s="5" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG11" s="5">
+        <f t="shared" si="44"/>
+        <v>35841.03125</v>
+      </c>
+      <c r="CH11" s="5" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI11" s="5">
+        <f t="shared" si="46"/>
+        <v>58748</v>
+      </c>
+      <c r="CJ11" s="13">
+        <f t="shared" si="36"/>
+        <v>48310.458333333328</v>
+      </c>
+      <c r="CK11">
+        <v>13.1864456176757</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>15.9439073324203</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>13.1917854070663</v>
+      </c>
+      <c r="CP11" s="3">
+        <f t="shared" si="37"/>
+        <v>42.322138357162302</v>
+      </c>
+      <c r="CQ11" s="5"/>
+      <c r="CV11" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC11" s="5"/>
+      <c r="DH11" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI11" s="5"/>
+      <c r="DN11" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="14">
-        <v>726269</v>
+        <v>662041</v>
       </c>
       <c r="C12" s="14">
         <v>40</v>
       </c>
       <c r="D12" s="17">
-        <f t="shared" si="3"/>
-        <v>18156.724999999999</v>
+        <f t="shared" si="4"/>
+        <v>16551.025000000001</v>
       </c>
       <c r="E12">
         <v>110992</v>
@@ -3001,7 +4059,7 @@
         <v>119486.6</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>331210</v>
       </c>
       <c r="K12" s="5">
@@ -3020,19 +4078,19 @@
         <v>3</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55496</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31825</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22968.799999999999</v>
       </c>
       <c r="T12" s="4" t="e">
@@ -3044,7 +4102,7 @@
         <v>39828.866666666669</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36801.111111111109</v>
       </c>
       <c r="W12">
@@ -3063,7 +4121,7 @@
         <v>14.1775552749633</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>47.111652469634905</v>
       </c>
       <c r="AC12">
@@ -3082,7 +4140,7 @@
         <v>117496</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>347826.3</v>
       </c>
       <c r="AI12">
@@ -3101,31 +4159,31 @@
         <v>2</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>57824</v>
       </c>
       <c r="AP12" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35838.21875</v>
       </c>
       <c r="AR12" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>58748</v>
       </c>
       <c r="AT12" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48309.208333333328</v>
       </c>
       <c r="AU12">
@@ -3144,7 +4202,7 @@
         <v>148515.4</v>
       </c>
       <c r="AZ12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>350797.9</v>
       </c>
       <c r="BA12">
@@ -3163,31 +4221,31 @@
         <v>3</v>
       </c>
       <c r="BF12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.4</v>
       </c>
       <c r="BG12" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30700.666666666668</v>
       </c>
       <c r="BH12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12392</v>
       </c>
       <c r="BI12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28761.323529411766</v>
       </c>
       <c r="BJ12" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>49505.133333333331</v>
       </c>
       <c r="BL12" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>33730.567307692312</v>
       </c>
       <c r="BM12">
@@ -3206,24 +4264,126 @@
         <v>20.226182770729</v>
       </c>
       <c r="BR12" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45.047735524177462</v>
       </c>
-      <c r="BX12" s="3"/>
+      <c r="BS12">
+        <v>139417.60000000001</v>
+      </c>
+      <c r="BT12">
+        <v>34697</v>
+      </c>
+      <c r="BU12">
+        <v>110454.39999999999</v>
+      </c>
+      <c r="BV12">
+        <v>16434</v>
+      </c>
+      <c r="BW12">
+        <v>78241</v>
+      </c>
+      <c r="BX12" s="3">
+        <f t="shared" si="29"/>
+        <v>379244</v>
+      </c>
+      <c r="BY12">
+        <v>3</v>
+      </c>
+      <c r="BZ12">
+        <v>1</v>
+      </c>
+      <c r="CA12">
+        <v>3</v>
+      </c>
+      <c r="CB12">
+        <v>1</v>
+      </c>
+      <c r="CC12">
+        <v>2</v>
+      </c>
+      <c r="CD12">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="CE12" s="5">
+        <f t="shared" si="42"/>
+        <v>46472.533333333333</v>
+      </c>
+      <c r="CF12" s="5">
+        <f t="shared" si="43"/>
+        <v>34697</v>
+      </c>
+      <c r="CG12" s="5">
+        <f t="shared" si="44"/>
+        <v>36818.133333333331</v>
+      </c>
+      <c r="CH12" s="5">
+        <f t="shared" si="45"/>
+        <v>16434</v>
+      </c>
+      <c r="CI12" s="5">
+        <f t="shared" si="46"/>
+        <v>39120.5</v>
+      </c>
+      <c r="CJ12" s="13">
+        <f t="shared" si="36"/>
+        <v>37924.400000000001</v>
+      </c>
+      <c r="CK12">
+        <v>19.513508677482601</v>
+      </c>
+      <c r="CL12">
+        <v>1.47572810649871</v>
+      </c>
+      <c r="CM12">
+        <v>19.0407157421112</v>
+      </c>
+      <c r="CN12">
+        <v>1.1340616226196201</v>
+      </c>
+      <c r="CO12">
+        <v>5.2553614854812603</v>
+      </c>
+      <c r="CP12" s="3">
+        <f t="shared" si="37"/>
+        <v>46.419375634193393</v>
+      </c>
+      <c r="CV12" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC12" s="5"/>
+      <c r="DD12" s="4"/>
+      <c r="DE12" s="4"/>
+      <c r="DF12" s="4"/>
+      <c r="DG12" s="4"/>
+      <c r="DH12" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI12" s="5"/>
+      <c r="DN12" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="14">
-        <v>727309</v>
+        <v>700945</v>
       </c>
       <c r="C13" s="14">
         <v>40</v>
       </c>
       <c r="D13" s="17">
-        <f t="shared" si="3"/>
-        <v>18182.724999999999</v>
+        <f t="shared" si="4"/>
+        <v>17523.625</v>
       </c>
       <c r="E13">
         <v>111403.3</v>
@@ -3241,7 +4401,7 @@
         <v>90482</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>370922</v>
       </c>
       <c r="K13" s="5">
@@ -3260,19 +4420,19 @@
         <v>3</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.9</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29316.657894736843</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23496.5</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43686.523809523809</v>
       </c>
       <c r="T13" s="4">
@@ -3284,7 +4444,7 @@
         <v>30160.666666666668</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31169.915966386554</v>
       </c>
       <c r="W13">
@@ -3303,7 +4463,7 @@
         <v>6.2061499595641996</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45.026638197898762</v>
       </c>
       <c r="AC13">
@@ -3322,7 +4482,7 @@
         <v>85926</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>369791.2</v>
       </c>
       <c r="AI13">
@@ -3341,31 +4501,31 @@
         <v>2</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>44780.870967741939</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34697</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36782.5</v>
       </c>
       <c r="AR13" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42963</v>
       </c>
       <c r="AT13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>40636.395604395606</v>
       </c>
       <c r="AU13">
@@ -3384,7 +4544,7 @@
         <v>67785</v>
       </c>
       <c r="AZ13" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>366741.4</v>
       </c>
       <c r="BA13">
@@ -3403,31 +4563,31 @@
         <v>2</v>
       </c>
       <c r="BF13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.1</v>
       </c>
       <c r="BG13" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34704.133333333331</v>
       </c>
       <c r="BH13" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>34697</v>
       </c>
       <c r="BI13" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>51660.322580645159</v>
       </c>
       <c r="BJ13" s="5" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK13" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>33892.5</v>
       </c>
       <c r="BL13" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40301.252747252751</v>
       </c>
       <c r="BM13">
@@ -3446,24 +4606,126 @@
         <v>3.0675095558166499</v>
       </c>
       <c r="BR13" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>49.506073975562956</v>
       </c>
-      <c r="BX13" s="3"/>
+      <c r="BS13">
+        <v>130647.1</v>
+      </c>
+      <c r="BT13">
+        <v>24848</v>
+      </c>
+      <c r="BU13">
+        <v>87399.6</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>137685.4</v>
+      </c>
+      <c r="BX13" s="3">
+        <f t="shared" si="29"/>
+        <v>380580.1</v>
+      </c>
+      <c r="BY13">
+        <v>3.8</v>
+      </c>
+      <c r="BZ13">
+        <v>1</v>
+      </c>
+      <c r="CA13">
+        <v>3.7</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>2.8</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" si="30"/>
+        <v>11.3</v>
+      </c>
+      <c r="CE13" s="5">
+        <f t="shared" si="42"/>
+        <v>34380.815789473687</v>
+      </c>
+      <c r="CF13" s="5">
+        <f t="shared" si="43"/>
+        <v>24848</v>
+      </c>
+      <c r="CG13" s="5">
+        <f t="shared" si="44"/>
+        <v>23621.513513513513</v>
+      </c>
+      <c r="CH13" s="5" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI13" s="5">
+        <f t="shared" si="46"/>
+        <v>49173.357142857145</v>
+      </c>
+      <c r="CJ13" s="13">
+        <f t="shared" si="36"/>
+        <v>33679.654867256635</v>
+      </c>
+      <c r="CK13">
+        <v>13.436569523811301</v>
+      </c>
+      <c r="CL13">
+        <v>1.0859034776687599</v>
+      </c>
+      <c r="CM13">
+        <v>14.5092234611511</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>10.178366971015899</v>
+      </c>
+      <c r="CP13" s="3">
+        <f t="shared" si="37"/>
+        <v>39.210063433647058</v>
+      </c>
+      <c r="CV13" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="4"/>
+      <c r="DE13" s="4"/>
+      <c r="DF13" s="4"/>
+      <c r="DG13" s="4"/>
+      <c r="DH13" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI13" s="5"/>
+      <c r="DN13" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="14">
-        <v>747708</v>
+        <v>700945</v>
       </c>
       <c r="C14" s="14">
         <v>40</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" si="3"/>
-        <v>18692.7</v>
+        <f t="shared" si="4"/>
+        <v>17523.625</v>
       </c>
       <c r="E14">
         <v>103159.1</v>
@@ -3481,7 +4743,7 @@
         <v>164862.9</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>393485.19999999995</v>
       </c>
       <c r="K14">
@@ -3500,19 +4762,19 @@
         <v>2</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27880.837837837837</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44409</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27018.066666666666</v>
       </c>
       <c r="T14" s="5" t="e">
@@ -3524,7 +4786,7 @@
         <v>82431.45</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40565.484536082469</v>
       </c>
       <c r="W14">
@@ -3543,7 +4805,7 @@
         <v>10.102715826034499</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41.380345439910748</v>
       </c>
       <c r="AC14">
@@ -3562,10 +4824,10 @@
         <v>128962</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>373415.3</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="5">
         <v>3.7</v>
       </c>
       <c r="AJ14">
@@ -3581,31 +4843,31 @@
         <v>2</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37580.216216216213</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28910</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25498.833333333332</v>
       </c>
       <c r="AR14" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>64481</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38496.422680412375</v>
       </c>
       <c r="AU14">
@@ -3624,7 +4886,7 @@
         <v>128962</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>373216.5</v>
       </c>
       <c r="BA14">
@@ -3643,31 +4905,31 @@
         <v>2</v>
       </c>
       <c r="BF14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="BG14" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>37550.405405405407</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28910</v>
       </c>
       <c r="BI14" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25469.333333333332</v>
       </c>
       <c r="BJ14" s="5" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK14" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>64481</v>
       </c>
       <c r="BL14" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>38475.927835051552</v>
       </c>
       <c r="BM14" s="5">
@@ -3686,39 +4948,188 @@
         <v>9.8194148302078208</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>41.211841726303</v>
       </c>
-      <c r="BX14" s="3"/>
+      <c r="BS14">
+        <v>138920.70000000001</v>
+      </c>
+      <c r="BT14">
+        <v>28910</v>
+      </c>
+      <c r="BU14">
+        <v>76454</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>128962</v>
+      </c>
+      <c r="BX14" s="3">
+        <f t="shared" si="29"/>
+        <v>373246.7</v>
+      </c>
+      <c r="BY14">
+        <v>3.7</v>
+      </c>
+      <c r="BZ14">
+        <v>1</v>
+      </c>
+      <c r="CA14">
+        <v>3</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>2</v>
+      </c>
+      <c r="CD14">
+        <f t="shared" si="30"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="CE14" s="5">
+        <f t="shared" si="42"/>
+        <v>37546.135135135133</v>
+      </c>
+      <c r="CF14" s="5">
+        <f t="shared" si="43"/>
+        <v>28910</v>
+      </c>
+      <c r="CG14" s="5">
+        <f t="shared" si="44"/>
+        <v>25484.666666666668</v>
+      </c>
+      <c r="CH14" s="5" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI14" s="5">
+        <f t="shared" si="46"/>
+        <v>64481</v>
+      </c>
+      <c r="CJ14" s="13">
+        <f t="shared" si="36"/>
+        <v>38479.041237113408</v>
+      </c>
+      <c r="CK14">
+        <v>15.9465914011001</v>
+      </c>
+      <c r="CL14">
+        <v>1.4991905927658</v>
+      </c>
+      <c r="CM14">
+        <v>12.905802202224701</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>9.9166703224182093</v>
+      </c>
+      <c r="CP14" s="3">
+        <f t="shared" si="37"/>
+        <v>40.268254518508812</v>
+      </c>
+      <c r="CV14" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC14" s="5"/>
+      <c r="DD14" s="4"/>
+      <c r="DE14" s="4"/>
+      <c r="DF14" s="4"/>
+      <c r="DG14" s="4"/>
+      <c r="DH14" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI14" s="5"/>
+      <c r="DN14" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="14">
-        <v>733752</v>
+        <v>614093</v>
       </c>
       <c r="C15" s="14">
         <v>40</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="3"/>
-        <v>18343.8</v>
-      </c>
-      <c r="E15" s="4"/>
+        <f t="shared" si="4"/>
+        <v>15352.325000000001</v>
+      </c>
+      <c r="E15">
+        <v>97723</v>
+      </c>
+      <c r="F15">
+        <v>48944</v>
+      </c>
+      <c r="G15">
+        <v>80876</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>139668.1</v>
+      </c>
       <c r="J15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="5"/>
+        <f t="shared" si="5"/>
+        <v>367211.1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.9</v>
+      </c>
       <c r="P15" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5"/>
+        <f t="shared" si="6"/>
+        <v>10.9</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" ref="Q15" si="47">E15/K15</f>
+        <v>32574.333333333332</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" ref="R15" si="48">F15/L15</f>
+        <v>24472</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" ref="S15" si="49">G15/M15</f>
+        <v>40438</v>
+      </c>
+      <c r="T15" s="5" t="e">
+        <f t="shared" ref="T15" si="50">H15/N15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" ref="U15" si="51">I15/O15</f>
+        <v>35812.333333333336</v>
+      </c>
       <c r="V15" s="3">
-        <f t="shared" ref="V15:V30" si="28">SUM(Q15:U15)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>33689.091743119265</v>
       </c>
       <c r="W15">
         <v>7.3110059261322</v>
@@ -3736,7 +5147,7 @@
         <v>11.2433337926864</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33.354327917098878</v>
       </c>
       <c r="AC15">
@@ -3755,10 +5166,10 @@
         <v>139579</v>
       </c>
       <c r="AH15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>367122</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="5">
         <v>3</v>
       </c>
       <c r="AJ15">
@@ -3774,31 +5185,31 @@
         <v>4</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32574.333333333332</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24472</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40438</v>
       </c>
       <c r="AR15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34894.75</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33374.727272727272</v>
       </c>
       <c r="AU15">
@@ -3817,7 +5228,7 @@
         <v>122710.7</v>
       </c>
       <c r="AZ15" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>351574.7</v>
       </c>
       <c r="BA15">
@@ -3836,31 +5247,31 @@
         <v>3</v>
       </c>
       <c r="BF15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.2</v>
       </c>
       <c r="BG15" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16598.25</v>
       </c>
       <c r="BH15" s="5" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI15" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38683.571428571428</v>
       </c>
       <c r="BJ15" s="5" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK15" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>40903.566666666666</v>
       </c>
       <c r="BL15" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31390.598214285717</v>
       </c>
       <c r="BM15">
@@ -3879,12 +5290,114 @@
         <v>7.9770816564559901</v>
       </c>
       <c r="BR15" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>46.313113808631826</v>
       </c>
-      <c r="BX15" s="3"/>
+      <c r="BS15">
+        <v>66393</v>
+      </c>
+      <c r="BT15">
+        <v>36447</v>
+      </c>
+      <c r="BU15">
+        <v>115052</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>133258.29999999999</v>
+      </c>
+      <c r="BX15" s="3">
+        <f t="shared" si="29"/>
+        <v>351150.3</v>
+      </c>
+      <c r="BY15">
+        <v>4</v>
+      </c>
+      <c r="BZ15">
+        <v>1</v>
+      </c>
+      <c r="CA15">
+        <v>4</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>3.1</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" si="30"/>
+        <v>12.1</v>
+      </c>
+      <c r="CE15" s="5">
+        <f t="shared" si="42"/>
+        <v>16598.25</v>
+      </c>
+      <c r="CF15" s="5">
+        <f t="shared" si="43"/>
+        <v>36447</v>
+      </c>
+      <c r="CG15" s="5">
+        <f t="shared" si="44"/>
+        <v>28763</v>
+      </c>
+      <c r="CH15" s="5" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI15" s="5">
+        <f t="shared" si="46"/>
+        <v>42986.548387096773</v>
+      </c>
+      <c r="CJ15" s="13">
+        <f t="shared" si="36"/>
+        <v>29020.685950413223</v>
+      </c>
+      <c r="CK15">
+        <v>5.9009680986404396</v>
+      </c>
+      <c r="CL15">
+        <v>2.8369066953658999</v>
+      </c>
+      <c r="CM15">
+        <v>16.4314507007598</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>11.6557870864868</v>
+      </c>
+      <c r="CP15" s="3">
+        <f t="shared" si="37"/>
+        <v>36.825112581252938</v>
+      </c>
+      <c r="CV15" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DC15" s="5"/>
+      <c r="DD15" s="4"/>
+      <c r="DE15" s="4"/>
+      <c r="DF15" s="4"/>
+      <c r="DG15" s="4"/>
+      <c r="DH15" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI15" s="5"/>
+      <c r="DN15" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3893,51 +5406,58 @@
         <v>40</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E16" s="4"/>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K16" s="5"/>
       <c r="P16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="V16" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="V15:V30" si="52">SUM(Q16:U16)</f>
         <v>0</v>
       </c>
       <c r="W16" s="5"/>
       <c r="AB16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AH16" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI16" s="5"/>
       <c r="AN16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AT16" s="3">
-        <f t="shared" ref="AT15:AT30" si="29">SUM(AO16:AS16)</f>
+        <f t="shared" ref="AT16:AT30" si="53">SUM(AO16:AS16)</f>
         <v>0</v>
       </c>
       <c r="BA16" s="5"/>
       <c r="BG16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BR16" s="3"/>
-      <c r="BX16" s="3"/>
+      <c r="BY16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CK16" s="5"/>
+      <c r="CP16" s="3"/>
+      <c r="CW16" s="5"/>
+      <c r="DC16" s="5"/>
+      <c r="DI16" s="5"/>
+      <c r="DN16" s="3"/>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3946,51 +5466,58 @@
         <v>40</v>
       </c>
       <c r="D17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="4"/>
       <c r="J17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K17" s="5"/>
       <c r="P17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="V17" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W17" s="5"/>
       <c r="AB17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AH17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AN17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AT17" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA17" s="5"/>
       <c r="BG17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BR17" s="3"/>
-      <c r="BX17" s="3"/>
+      <c r="BY17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CK17" s="5"/>
+      <c r="CP17" s="3"/>
+      <c r="CW17" s="5"/>
+      <c r="DC17" s="5"/>
+      <c r="DI17" s="5"/>
+      <c r="DN17" s="3"/>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3999,42 +5526,42 @@
         <v>40</v>
       </c>
       <c r="D18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E18" s="4"/>
       <c r="J18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K18" s="5"/>
       <c r="P18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="V18" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W18" s="5"/>
       <c r="AB18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AN18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO18" s="5"/>
       <c r="AT18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA18" s="5"/>
@@ -4043,9 +5570,20 @@
       <c r="BI18" s="4"/>
       <c r="BM18" s="5"/>
       <c r="BR18" s="3"/>
-      <c r="BX18" s="3"/>
+      <c r="BY18" s="5"/>
+      <c r="CA18" s="4"/>
+      <c r="CE18" s="5"/>
+      <c r="CG18" s="4"/>
+      <c r="CK18" s="5"/>
+      <c r="CP18" s="3"/>
+      <c r="CW18" s="5"/>
+      <c r="CY18" s="4"/>
+      <c r="DC18" s="5"/>
+      <c r="DE18" s="4"/>
+      <c r="DI18" s="5"/>
+      <c r="DN18" s="3"/>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4054,42 +5592,42 @@
         <v>40</v>
       </c>
       <c r="D19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="4"/>
       <c r="J19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K19" s="5"/>
       <c r="P19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="V19" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W19" s="5"/>
       <c r="AB19" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI19" s="5"/>
       <c r="AN19" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO19" s="5"/>
       <c r="AT19" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA19" s="5"/>
@@ -4098,9 +5636,20 @@
       <c r="BI19" s="4"/>
       <c r="BM19" s="5"/>
       <c r="BR19" s="3"/>
-      <c r="BX19" s="3"/>
+      <c r="BY19" s="5"/>
+      <c r="CA19" s="4"/>
+      <c r="CE19" s="5"/>
+      <c r="CG19" s="4"/>
+      <c r="CK19" s="5"/>
+      <c r="CP19" s="3"/>
+      <c r="CW19" s="5"/>
+      <c r="CY19" s="4"/>
+      <c r="DC19" s="5"/>
+      <c r="DE19" s="4"/>
+      <c r="DI19" s="5"/>
+      <c r="DN19" s="3"/>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4109,42 +5658,42 @@
         <v>40</v>
       </c>
       <c r="D20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E20" s="4"/>
       <c r="J20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20" s="5"/>
       <c r="P20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="V20" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W20" s="5"/>
       <c r="AB20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI20" s="5"/>
       <c r="AN20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO20" s="5"/>
       <c r="AT20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA20" s="5"/>
@@ -4153,9 +5702,20 @@
       <c r="BI20" s="4"/>
       <c r="BM20" s="5"/>
       <c r="BR20" s="3"/>
-      <c r="BX20" s="3"/>
+      <c r="BY20" s="5"/>
+      <c r="CA20" s="4"/>
+      <c r="CE20" s="5"/>
+      <c r="CG20" s="4"/>
+      <c r="CK20" s="5"/>
+      <c r="CP20" s="3"/>
+      <c r="CW20" s="5"/>
+      <c r="CY20" s="4"/>
+      <c r="DC20" s="5"/>
+      <c r="DE20" s="4"/>
+      <c r="DI20" s="5"/>
+      <c r="DN20" s="3"/>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -4164,7 +5724,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E21" s="4"/>
@@ -4173,7 +5733,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="5"/>
@@ -4182,7 +5742,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q21" s="5"/>
@@ -4191,7 +5751,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W21" s="5"/>
@@ -4200,7 +5760,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC21" s="5"/>
@@ -4209,7 +5769,7 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI21" s="5"/>
@@ -4218,7 +5778,7 @@
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO21" s="5"/>
@@ -4227,7 +5787,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
       <c r="AT21" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA21" s="5"/>
@@ -4236,9 +5796,20 @@
       <c r="BI21" s="4"/>
       <c r="BM21" s="5"/>
       <c r="BR21" s="3"/>
-      <c r="BX21" s="3"/>
+      <c r="BY21" s="5"/>
+      <c r="CA21" s="4"/>
+      <c r="CE21" s="5"/>
+      <c r="CG21" s="4"/>
+      <c r="CK21" s="5"/>
+      <c r="CP21" s="3"/>
+      <c r="CW21" s="5"/>
+      <c r="CY21" s="4"/>
+      <c r="DC21" s="5"/>
+      <c r="DE21" s="4"/>
+      <c r="DI21" s="5"/>
+      <c r="DN21" s="3"/>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4247,7 +5818,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="4"/>
@@ -4256,7 +5827,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22" s="5"/>
@@ -4265,7 +5836,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q22" s="5"/>
@@ -4274,7 +5845,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W22" s="5"/>
@@ -4283,7 +5854,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC22" s="5"/>
@@ -4292,7 +5863,7 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI22" s="5"/>
@@ -4301,7 +5872,7 @@
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
       <c r="AN22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO22" s="5"/>
@@ -4310,7 +5881,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA22" s="5"/>
@@ -4319,9 +5890,20 @@
       <c r="BI22" s="4"/>
       <c r="BM22" s="5"/>
       <c r="BR22" s="3"/>
-      <c r="BX22" s="3"/>
+      <c r="BY22" s="5"/>
+      <c r="CA22" s="4"/>
+      <c r="CE22" s="5"/>
+      <c r="CG22" s="4"/>
+      <c r="CK22" s="5"/>
+      <c r="CP22" s="3"/>
+      <c r="CW22" s="5"/>
+      <c r="CY22" s="4"/>
+      <c r="DC22" s="5"/>
+      <c r="DE22" s="4"/>
+      <c r="DI22" s="5"/>
+      <c r="DN22" s="3"/>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4330,7 +5912,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -4339,7 +5921,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="5"/>
@@ -4348,7 +5930,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q23" s="5"/>
@@ -4357,7 +5939,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W23" s="5"/>
@@ -4366,7 +5948,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC23" s="5"/>
@@ -4375,7 +5957,7 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI23" s="5"/>
@@ -4384,7 +5966,7 @@
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO23" s="5"/>
@@ -4393,7 +5975,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA23" s="5"/>
@@ -4402,9 +5984,20 @@
       <c r="BI23" s="4"/>
       <c r="BM23" s="5"/>
       <c r="BR23" s="3"/>
-      <c r="BX23" s="3"/>
+      <c r="BY23" s="5"/>
+      <c r="CA23" s="4"/>
+      <c r="CE23" s="5"/>
+      <c r="CG23" s="4"/>
+      <c r="CK23" s="5"/>
+      <c r="CP23" s="3"/>
+      <c r="CW23" s="5"/>
+      <c r="CY23" s="4"/>
+      <c r="DC23" s="5"/>
+      <c r="DE23" s="4"/>
+      <c r="DI23" s="5"/>
+      <c r="DN23" s="3"/>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -4413,7 +6006,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E24" s="4"/>
@@ -4422,7 +6015,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K24" s="5"/>
@@ -4431,7 +6024,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="5"/>
@@ -4440,7 +6033,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W24" s="5"/>
@@ -4449,7 +6042,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC24" s="5"/>
@@ -4458,7 +6051,7 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI24" s="5"/>
@@ -4467,7 +6060,7 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO24" s="5"/>
@@ -4476,7 +6069,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA24" s="5"/>
@@ -4485,9 +6078,20 @@
       <c r="BI24" s="4"/>
       <c r="BM24" s="5"/>
       <c r="BR24" s="3"/>
-      <c r="BX24" s="3"/>
+      <c r="BY24" s="5"/>
+      <c r="CA24" s="4"/>
+      <c r="CE24" s="5"/>
+      <c r="CG24" s="4"/>
+      <c r="CK24" s="5"/>
+      <c r="CP24" s="3"/>
+      <c r="CW24" s="5"/>
+      <c r="CY24" s="4"/>
+      <c r="DC24" s="5"/>
+      <c r="DE24" s="4"/>
+      <c r="DI24" s="5"/>
+      <c r="DN24" s="3"/>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -4496,7 +6100,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E25" s="4"/>
@@ -4505,7 +6109,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K25" s="5"/>
@@ -4514,7 +6118,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q25" s="5"/>
@@ -4523,7 +6127,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W25" s="5"/>
@@ -4532,7 +6136,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC25" s="5"/>
@@ -4541,7 +6145,7 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI25" s="5"/>
@@ -4550,7 +6154,7 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO25" s="5"/>
@@ -4559,7 +6163,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA25" s="5"/>
@@ -4568,9 +6172,20 @@
       <c r="BI25" s="4"/>
       <c r="BM25" s="5"/>
       <c r="BR25" s="3"/>
-      <c r="BX25" s="3"/>
+      <c r="BY25" s="5"/>
+      <c r="CA25" s="4"/>
+      <c r="CE25" s="5"/>
+      <c r="CG25" s="4"/>
+      <c r="CK25" s="5"/>
+      <c r="CP25" s="3"/>
+      <c r="CW25" s="5"/>
+      <c r="CY25" s="4"/>
+      <c r="DC25" s="5"/>
+      <c r="DE25" s="4"/>
+      <c r="DI25" s="5"/>
+      <c r="DN25" s="3"/>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4579,7 +6194,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26" s="4"/>
@@ -4588,7 +6203,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K26" s="5"/>
@@ -4597,7 +6212,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q26" s="5"/>
@@ -4606,7 +6221,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W26" s="5"/>
@@ -4615,7 +6230,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC26" s="5"/>
@@ -4624,7 +6239,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI26" s="5"/>
@@ -4633,7 +6248,7 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO26" s="5"/>
@@ -4642,7 +6257,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA26" s="5"/>
@@ -4651,9 +6266,20 @@
       <c r="BI26" s="4"/>
       <c r="BM26" s="5"/>
       <c r="BR26" s="3"/>
-      <c r="BX26" s="3"/>
+      <c r="BY26" s="5"/>
+      <c r="CA26" s="4"/>
+      <c r="CE26" s="5"/>
+      <c r="CG26" s="4"/>
+      <c r="CK26" s="5"/>
+      <c r="CP26" s="3"/>
+      <c r="CW26" s="5"/>
+      <c r="CY26" s="4"/>
+      <c r="DC26" s="5"/>
+      <c r="DE26" s="4"/>
+      <c r="DI26" s="5"/>
+      <c r="DN26" s="3"/>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4662,7 +6288,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27" s="4"/>
@@ -4671,7 +6297,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K27" s="5"/>
@@ -4680,7 +6306,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q27" s="5"/>
@@ -4689,7 +6315,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W27" s="5"/>
@@ -4698,7 +6324,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC27" s="5"/>
@@ -4707,7 +6333,7 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI27" s="5"/>
@@ -4716,7 +6342,7 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
       <c r="AN27" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO27" s="5"/>
@@ -4725,7 +6351,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA27" s="5"/>
@@ -4734,9 +6360,20 @@
       <c r="BI27" s="4"/>
       <c r="BM27" s="5"/>
       <c r="BR27" s="3"/>
-      <c r="BX27" s="3"/>
+      <c r="BY27" s="5"/>
+      <c r="CA27" s="4"/>
+      <c r="CE27" s="5"/>
+      <c r="CG27" s="4"/>
+      <c r="CK27" s="5"/>
+      <c r="CP27" s="3"/>
+      <c r="CW27" s="5"/>
+      <c r="CY27" s="4"/>
+      <c r="DC27" s="5"/>
+      <c r="DE27" s="4"/>
+      <c r="DI27" s="5"/>
+      <c r="DN27" s="3"/>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4745,7 +6382,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="4"/>
@@ -4754,7 +6391,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K28" s="5"/>
@@ -4763,7 +6400,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q28" s="5"/>
@@ -4772,7 +6409,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W28" s="5"/>
@@ -4781,7 +6418,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC28" s="5"/>
@@ -4790,7 +6427,7 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI28" s="5"/>
@@ -4799,7 +6436,7 @@
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO28" s="5"/>
@@ -4808,16 +6445,23 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA28" s="5"/>
       <c r="BG28" s="5"/>
       <c r="BM28" s="5"/>
       <c r="BR28" s="3"/>
-      <c r="BX28" s="3"/>
+      <c r="BY28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CK28" s="5"/>
+      <c r="CP28" s="3"/>
+      <c r="CW28" s="5"/>
+      <c r="DC28" s="5"/>
+      <c r="DI28" s="5"/>
+      <c r="DN28" s="3"/>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4826,7 +6470,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="4"/>
@@ -4835,7 +6479,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="5"/>
@@ -4844,7 +6488,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q29" s="5"/>
@@ -4853,7 +6497,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W29" s="5"/>
@@ -4862,7 +6506,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC29" s="5"/>
@@ -4871,7 +6515,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI29" s="5"/>
@@ -4880,7 +6524,7 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO29" s="5"/>
@@ -4889,16 +6533,23 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA29" s="5"/>
       <c r="BG29" s="5"/>
       <c r="BM29" s="5"/>
       <c r="BR29" s="3"/>
-      <c r="BX29" s="3"/>
+      <c r="BY29" s="5"/>
+      <c r="CE29" s="5"/>
+      <c r="CK29" s="5"/>
+      <c r="CP29" s="3"/>
+      <c r="CW29" s="5"/>
+      <c r="DC29" s="5"/>
+      <c r="DI29" s="5"/>
+      <c r="DN29" s="3"/>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4907,7 +6558,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E30" s="4"/>
@@ -4916,7 +6567,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="5"/>
@@ -4925,7 +6576,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q30" s="5"/>
@@ -4934,7 +6585,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W30" s="5"/>
@@ -4943,7 +6594,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC30" s="5"/>
@@ -4952,7 +6603,7 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI30" s="5"/>
@@ -4961,7 +6612,7 @@
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO30" s="5"/>
@@ -4970,16 +6621,23 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BA30" s="5"/>
       <c r="BG30" s="5"/>
       <c r="BM30" s="5"/>
       <c r="BR30" s="3"/>
-      <c r="BX30" s="3"/>
+      <c r="BY30" s="5"/>
+      <c r="CE30" s="5"/>
+      <c r="CK30" s="5"/>
+      <c r="CP30" s="3"/>
+      <c r="CW30" s="5"/>
+      <c r="DC30" s="5"/>
+      <c r="DI30" s="5"/>
+      <c r="DN30" s="3"/>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4992,7 +6650,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
@@ -5007,7 +6665,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC31" s="5"/>
@@ -5026,8 +6684,16 @@
       <c r="BG31" s="5"/>
       <c r="BM31" s="5"/>
       <c r="BR31" s="3"/>
+      <c r="BY31" s="5"/>
+      <c r="CE31" s="5"/>
+      <c r="CK31" s="5"/>
+      <c r="CP31" s="3"/>
+      <c r="CW31" s="5"/>
+      <c r="DC31" s="5"/>
+      <c r="DI31" s="5"/>
+      <c r="DN31" s="3"/>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -5056,7 +6722,7 @@
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -5085,7 +6751,7 @@
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -5114,7 +6780,7 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -5143,7 +6809,7 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5171,8 +6837,50 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+      <c r="BT36" s="4"/>
+      <c r="BU36" s="4"/>
+      <c r="BV36" s="4"/>
+      <c r="BW36" s="4"/>
+      <c r="BX36" s="4"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5201,7 +6909,7 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5230,7 +6938,7 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5259,7 +6967,7 @@
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -5288,7 +6996,7 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -5317,7 +7025,7 @@
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -5346,7 +7054,7 @@
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -5375,7 +7083,7 @@
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -5404,7 +7112,7 @@
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -5433,7 +7141,7 @@
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -5462,7 +7170,7 @@
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -5491,7 +7199,7 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -5840,14 +7548,21 @@
       <c r="AH59" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="DC1:DH1"/>
+    <mergeCell ref="DI1:DN1"/>
+    <mergeCell ref="CE1:CJ1"/>
+    <mergeCell ref="CK1:CP1"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="CQ1:CV1"/>
+    <mergeCell ref="CW1:DB1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="BM1:BR1"/>
-    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BY1:CD1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AO1:AT1"/>
     <mergeCell ref="AU1:AZ1"/>

--- a/Results-Goo.xlsx
+++ b/Results-Goo.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>Instance names</t>
-  </si>
-  <si>
-    <t>AVG Worse2Worst's Distances</t>
-  </si>
-  <si>
-    <t>AVG Worse2Worst's CT</t>
   </si>
   <si>
     <t>DEPOT-0</t>
@@ -135,9 +129,6 @@
     <t>Naïve Worst Case (1 car per 1 request)</t>
   </si>
   <si>
-    <t>AVG Worse2Worst's Vehicle Numbers</t>
-  </si>
-  <si>
     <t>Naïve Vehicle numbers</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>AVG simple Distance/Vehicle Numbers</t>
   </si>
   <si>
-    <t>AVG Worse2Worst's distances/Vehicle Numbers</t>
-  </si>
-  <si>
     <t>AVG 3-voter Vehicles</t>
   </si>
   <si>
@@ -168,28 +156,37 @@
     <t>AVG 3-voter Distances</t>
   </si>
   <si>
-    <t>AVG Final assigned Vehicles</t>
-  </si>
-  <si>
-    <t>AVG Final assigned  Distances/Vehicles</t>
-  </si>
-  <si>
-    <t>AVG Final assigned Distances</t>
-  </si>
-  <si>
-    <t>AVG Final assigned CT</t>
-  </si>
-  <si>
-    <t>AVG Final vote assigned Distances</t>
-  </si>
-  <si>
     <t>AVG Final vote assigned Vehicles</t>
   </si>
   <si>
-    <t>AVG Final vote assigned  Distances/Vehicles</t>
+    <t>AVG Nearest Routable's CT</t>
   </si>
   <si>
-    <t>AVG Final vote assigned CT</t>
+    <t>AVG Nearest Routable's Distances</t>
+  </si>
+  <si>
+    <t>AVG Nearest Routable's Vehicle Numbers</t>
+  </si>
+  <si>
+    <t>AVG Nearest Routable's distances/Vehicle Numbers</t>
+  </si>
+  <si>
+    <t>AVG Nearest routable with condition assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG Nearest routable with condition Vehicles</t>
+  </si>
+  <si>
+    <t>AVG Nearest routable with condition Distances/Vehicles</t>
+  </si>
+  <si>
+    <t>AVG 3-voter with condition assigned CT</t>
+  </si>
+  <si>
+    <t>AVG 3-voter with condition assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG 3-voter with condition assigned  Distances/Vehicles</t>
   </si>
 </sst>
 </file>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36:BX36"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DL10" sqref="DL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,11 +671,12 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="33" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="35" max="51" width="0" hidden="1" customWidth="1"/>
-    <col min="53" max="75" width="0" hidden="1" customWidth="1"/>
-    <col min="77" max="94" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" customWidth="1"/>
+    <col min="11" max="33" width="9.140625" customWidth="1"/>
+    <col min="35" max="51" width="9.140625" customWidth="1"/>
+    <col min="53" max="75" width="9.140625" customWidth="1"/>
+    <col min="77" max="99" width="9.140625" customWidth="1"/>
+    <col min="101" max="118" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.25">
@@ -686,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -703,7 +701,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -711,7 +709,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
@@ -719,7 +717,7 @@
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
       <c r="W1" s="19" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
@@ -727,7 +725,7 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="19" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="20"/>
       <c r="AE1" s="20"/>
@@ -735,7 +733,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
       <c r="AI1" s="19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
@@ -743,7 +741,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
       <c r="AO1" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AP1" s="20"/>
       <c r="AQ1" s="20"/>
@@ -751,7 +749,7 @@
       <c r="AS1" s="20"/>
       <c r="AT1" s="20"/>
       <c r="AU1" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AV1" s="20"/>
       <c r="AW1" s="20"/>
@@ -759,7 +757,7 @@
       <c r="AY1" s="20"/>
       <c r="AZ1" s="21"/>
       <c r="BA1" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BB1" s="20"/>
       <c r="BC1" s="20"/>
@@ -767,7 +765,7 @@
       <c r="BE1" s="20"/>
       <c r="BF1" s="20"/>
       <c r="BG1" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BH1" s="20"/>
       <c r="BI1" s="20"/>
@@ -775,7 +773,7 @@
       <c r="BK1" s="20"/>
       <c r="BL1" s="20"/>
       <c r="BM1" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BN1" s="20"/>
       <c r="BO1" s="20"/>
@@ -783,7 +781,7 @@
       <c r="BQ1" s="20"/>
       <c r="BR1" s="20"/>
       <c r="BS1" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BT1" s="20"/>
       <c r="BU1" s="20"/>
@@ -791,7 +789,7 @@
       <c r="BW1" s="20"/>
       <c r="BX1" s="21"/>
       <c r="BY1" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BZ1" s="20"/>
       <c r="CA1" s="20"/>
@@ -799,7 +797,7 @@
       <c r="CC1" s="20"/>
       <c r="CD1" s="20"/>
       <c r="CE1" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CF1" s="20"/>
       <c r="CG1" s="20"/>
@@ -807,7 +805,7 @@
       <c r="CI1" s="20"/>
       <c r="CJ1" s="20"/>
       <c r="CK1" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CL1" s="20"/>
       <c r="CM1" s="20"/>
@@ -815,7 +813,7 @@
       <c r="CO1" s="20"/>
       <c r="CP1" s="20"/>
       <c r="CQ1" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CR1" s="20"/>
       <c r="CS1" s="20"/>
@@ -823,7 +821,7 @@
       <c r="CU1" s="20"/>
       <c r="CV1" s="21"/>
       <c r="CW1" s="19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="CX1" s="20"/>
       <c r="CY1" s="20"/>
@@ -839,7 +837,7 @@
       <c r="DG1" s="20"/>
       <c r="DH1" s="20"/>
       <c r="DI1" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="DJ1" s="20"/>
       <c r="DK1" s="20"/>
@@ -849,353 +847,353 @@
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="W2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="AC2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AH2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="AI2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AN2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="AO2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AT2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="AU2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="BA2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BE2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="BG2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BK2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="BM2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BP2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BQ2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="BS2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BV2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BW2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BX2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BW2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="BY2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BZ2" s="4" t="s">
+      <c r="CB2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="CA2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CB2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CC2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="CE2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CF2" s="4" t="s">
+      <c r="CH2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="CG2" s="4" t="s">
+      <c r="CI2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CI2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="CK2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CL2" s="4" t="s">
+      <c r="CN2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="CM2" s="4" t="s">
+      <c r="CO2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CN2" s="4" t="s">
+      <c r="CP2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CO2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="CQ2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CR2" s="4" t="s">
+      <c r="CT2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="CS2" s="4" t="s">
+      <c r="CU2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CT2" s="4" t="s">
+      <c r="CV2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CU2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="CW2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CX2" s="4" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="CY2" s="4" t="s">
+      <c r="DA2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CZ2" s="4" t="s">
+      <c r="DB2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="DA2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="DC2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="DD2" s="4" t="s">
+      <c r="DF2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="DE2" s="4" t="s">
+      <c r="DG2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="DF2" s="4" t="s">
+      <c r="DH2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="DG2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="DH2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="DI2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="DJ2" s="4" t="s">
+      <c r="DL2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="DK2" s="4" t="s">
+      <c r="DM2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="DL2" s="4" t="s">
+      <c r="DN2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="DM2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="DN2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.25">
@@ -1298,7 +1296,7 @@
       <c r="CS3" s="9"/>
       <c r="CT3" s="9"/>
       <c r="CU3" s="9"/>
-      <c r="CV3" s="11"/>
+      <c r="CV3" s="3"/>
       <c r="CW3" s="10"/>
       <c r="CX3" s="9"/>
       <c r="CY3" s="9"/>
@@ -1320,7 +1318,7 @@
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="16">
         <v>678347</v>
@@ -1367,31 +1365,31 @@
         <v>4</v>
       </c>
       <c r="P4" s="2">
-        <f>SUM(K4:O4)</f>
+        <f t="shared" ref="P4:P12" si="0">SUM(K4:O4)</f>
         <v>13</v>
       </c>
       <c r="Q4" s="5">
-        <f>E4/K4</f>
+        <f t="shared" ref="Q4:Q12" si="1">E4/K4</f>
         <v>32570.333333333332</v>
       </c>
       <c r="R4" s="4">
-        <f>F4/L4</f>
+        <f t="shared" ref="R4:R12" si="2">F4/L4</f>
         <v>33400</v>
       </c>
       <c r="S4" s="4">
-        <f>G4/M4</f>
+        <f t="shared" ref="S4:S12" si="3">G4/M4</f>
         <v>22093.7</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" ref="T4:U14" si="0">H4/N4</f>
+        <f t="shared" ref="T4:T12" si="4">H4/N4</f>
         <v>37649</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T4:U14" si="5">I4/O4</f>
         <v>37136.9</v>
       </c>
       <c r="V4" s="3">
-        <f>J4/P4</f>
+        <f t="shared" ref="V4:V12" si="6">J4/P4</f>
         <v>31206.338461538464</v>
       </c>
       <c r="W4">
@@ -1456,19 +1454,19 @@
         <v>20780.666666666668</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AS4" si="1">(AD4/AJ4)</f>
+        <f t="shared" ref="AP4:AS4" si="7">(AD4/AJ4)</f>
         <v>16477</v>
       </c>
       <c r="AQ4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>35683.045454545449</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11241</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>38312.666666666664</v>
       </c>
       <c r="AT4" s="3">
@@ -1518,19 +1516,19 @@
         <v>27485</v>
       </c>
       <c r="BH4">
-        <f t="shared" ref="BH4:BK4" si="2">(AV4/BB4)</f>
+        <f t="shared" ref="BH4:BK4" si="8">(AV4/BB4)</f>
         <v>16477</v>
       </c>
       <c r="BI4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>37082.65</v>
       </c>
       <c r="BJ4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>33939</v>
       </c>
       <c r="BL4" s="13">
@@ -1599,19 +1597,19 @@
         <v>20780.666666666668</v>
       </c>
       <c r="CF4" s="4">
-        <f t="shared" ref="CF4:CI4" si="3">BT4/BZ4</f>
+        <f t="shared" ref="CF4:CI4" si="9">BT4/BZ4</f>
         <v>16477</v>
       </c>
       <c r="CG4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>34036.695652173912</v>
       </c>
       <c r="CH4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11241</v>
       </c>
       <c r="CI4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>38312.666666666664</v>
       </c>
       <c r="CJ4" s="4">
@@ -1637,28 +1635,91 @@
         <f>SUM(CK4:CO4)</f>
         <v>38.99330556392664</v>
       </c>
-      <c r="CQ4" s="1"/>
+      <c r="CQ4">
+        <v>32016</v>
+      </c>
+      <c r="CR4">
+        <v>6615</v>
+      </c>
+      <c r="CS4">
+        <v>318600.7</v>
+      </c>
+      <c r="CT4">
+        <v>11241</v>
+      </c>
+      <c r="CU4">
+        <v>6837</v>
+      </c>
       <c r="CV4" s="13">
         <f>SUM(CQ4:CU4)</f>
-        <v>0</v>
+        <v>375309.7</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>8</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
       </c>
       <c r="DB4">
         <f>SUM(CW4:DA4)</f>
-        <v>0</v>
-      </c>
-      <c r="DC4" s="1"/>
-      <c r="DH4" s="13" t="e">
-        <f>(CP4/DB4)</f>
-        <v>#DIV/0!</v>
+        <v>12</v>
+      </c>
+      <c r="DC4" s="5">
+        <f>CQ4/CW4</f>
+        <v>32016</v>
+      </c>
+      <c r="DD4" s="5">
+        <f t="shared" ref="DD4:DG5" si="10">CR4/CX4</f>
+        <v>6615</v>
+      </c>
+      <c r="DE4" s="5">
+        <f t="shared" si="10"/>
+        <v>39825.087500000001</v>
+      </c>
+      <c r="DF4" s="5">
+        <f t="shared" si="10"/>
+        <v>11241</v>
+      </c>
+      <c r="DG4" s="5">
+        <f t="shared" si="10"/>
+        <v>6837</v>
+      </c>
+      <c r="DH4" s="4">
+        <f>CV4/DB4</f>
+        <v>31275.808333333334</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>1.9079454183578399</v>
+      </c>
+      <c r="DJ4">
+        <v>1.0843778848648</v>
+      </c>
+      <c r="DK4">
+        <v>60.103556871414099</v>
+      </c>
+      <c r="DL4">
+        <v>1.0725058555603</v>
+      </c>
+      <c r="DM4">
+        <v>1.0938694715499799</v>
       </c>
       <c r="DN4" s="13">
         <f>SUM(DI4:DM4)</f>
-        <v>0</v>
+        <v>65.262255501747021</v>
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="14">
         <v>619344</v>
@@ -1667,7 +1728,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" ref="D5:D30" si="4">(B5/C5)</f>
+        <f t="shared" ref="D5:D15" si="11">(B5/C5)</f>
         <v>15483.6</v>
       </c>
       <c r="E5">
@@ -1686,7 +1747,7 @@
         <v>156591.70000000001</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J31" si="5">SUM(E5:I5)</f>
+        <f t="shared" ref="J5:J15" si="12">SUM(E5:I5)</f>
         <v>367019.80000000005</v>
       </c>
       <c r="K5" s="5">
@@ -1705,31 +1766,31 @@
         <v>3</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P30" si="6">SUM(K5:O5)</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" ref="Q5:Q14" si="7">E5/K5</f>
+        <f t="shared" si="1"/>
         <v>46791.3</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" ref="R5:R14" si="8">F5/L5</f>
+        <f t="shared" si="2"/>
         <v>40595</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5:S14" si="9">G5/M5</f>
+        <f t="shared" si="3"/>
         <v>19551.410256410258</v>
       </c>
       <c r="T5" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52197.233333333337</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" ref="V5:V15" si="10">J5/P5</f>
+        <f t="shared" si="6"/>
         <v>37072.707070707074</v>
       </c>
       <c r="W5">
@@ -1748,7 +1809,7 @@
         <v>10.2579130887985</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB30" si="11">SUM(W5:AA5)</f>
+        <f t="shared" ref="AB5:AB15" si="13">SUM(W5:AA5)</f>
         <v>40.173959207534651</v>
       </c>
       <c r="AC5">
@@ -1767,7 +1828,7 @@
         <v>137734.6</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" ref="V5:AH31" si="12">SUM(AC5:AG5)</f>
+        <f t="shared" ref="V5:AH31" si="14">SUM(AC5:AG5)</f>
         <v>380761.59999999998</v>
       </c>
       <c r="AI5">
@@ -1786,31 +1847,31 @@
         <v>2.7</v>
       </c>
       <c r="AN5" s="3">
-        <f t="shared" ref="AN5:AN30" si="13">SUM(AI5:AM5)</f>
+        <f t="shared" ref="AN5:AN30" si="15">SUM(AI5:AM5)</f>
         <v>11.2</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO15" si="14">(AC5/AI5)</f>
+        <f t="shared" ref="AO5:AO15" si="16">(AC5/AI5)</f>
         <v>34322.473684210527</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP15" si="15">(AD5/AJ5)</f>
+        <f t="shared" ref="AP5:AP15" si="17">(AD5/AJ5)</f>
         <v>24848</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ15" si="16">(AE5/AK5)</f>
+        <f t="shared" ref="AQ5:AQ15" si="18">(AE5/AK5)</f>
         <v>23717.18918918919</v>
       </c>
       <c r="AR5" t="e">
-        <f t="shared" ref="AR5:AR15" si="17">(AF5/AL5)</f>
+        <f t="shared" ref="AR5:AR15" si="19">(AF5/AL5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS15" si="18">(AG5/AM5)</f>
+        <f t="shared" ref="AS5:AS15" si="20">(AG5/AM5)</f>
         <v>51012.81481481481</v>
       </c>
       <c r="AT5" s="3">
-        <f t="shared" ref="AT5:AT15" si="19">(AH5/AN5)</f>
+        <f t="shared" ref="AT5:AT15" si="21">(AH5/AN5)</f>
         <v>33996.571428571428</v>
       </c>
       <c r="AU5">
@@ -1829,7 +1890,7 @@
         <v>152363.9</v>
       </c>
       <c r="AZ5" s="3">
-        <f t="shared" ref="AZ5:AZ15" si="20">SUM(AU5:AY5)</f>
+        <f t="shared" ref="AZ5:AZ15" si="22">SUM(AU5:AY5)</f>
         <v>352203.19999999995</v>
       </c>
       <c r="BA5">
@@ -1848,31 +1909,31 @@
         <v>3</v>
       </c>
       <c r="BF5">
-        <f t="shared" ref="BF5:BF15" si="21">SUM(BA5:BE5)</f>
+        <f t="shared" ref="BF5:BF15" si="23">SUM(BA5:BE5)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="BG5" s="5">
-        <f t="shared" ref="BG5:BG15" si="22">(AU5/BA5)</f>
+        <f t="shared" ref="BG5:BG15" si="24">(AU5/BA5)</f>
         <v>27403</v>
       </c>
       <c r="BH5">
-        <f t="shared" ref="BH5:BH15" si="23">(AV5/BB5)</f>
+        <f t="shared" ref="BH5:BH15" si="25">(AV5/BB5)</f>
         <v>24848</v>
       </c>
       <c r="BI5">
-        <f t="shared" ref="BI5:BI15" si="24">(AW5/BC5)</f>
+        <f t="shared" ref="BI5:BI15" si="26">(AW5/BC5)</f>
         <v>33136.535714285717</v>
       </c>
       <c r="BJ5" t="e">
-        <f t="shared" ref="BJ5:BJ15" si="25">(AX5/BD5)</f>
+        <f t="shared" ref="BJ5:BJ15" si="27">(AX5/BD5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK5">
-        <f t="shared" ref="BK5:BK15" si="26">(AY5/BE5)</f>
+        <f t="shared" ref="BK5:BK15" si="28">(AY5/BE5)</f>
         <v>50787.966666666667</v>
       </c>
       <c r="BL5" s="3">
-        <f t="shared" ref="BL5:BL15" si="27">(AZ5/BF5)</f>
+        <f t="shared" ref="BL5:BL15" si="29">(AZ5/BF5)</f>
         <v>35939.102040816317</v>
       </c>
       <c r="BM5">
@@ -1891,7 +1952,7 @@
         <v>14.394641757011399</v>
       </c>
       <c r="BR5" s="3">
-        <f t="shared" ref="BR5:BR15" si="28">SUM(BM5:BQ5)</f>
+        <f t="shared" ref="BR5:BR15" si="30">SUM(BM5:BQ5)</f>
         <v>38.530360841751076</v>
       </c>
       <c r="BS5">
@@ -1910,7 +1971,7 @@
         <v>104948</v>
       </c>
       <c r="BX5" s="3">
-        <f t="shared" ref="BX5:BX15" si="29">SUM(BS5:BW5)</f>
+        <f t="shared" ref="BX5:BX15" si="31">SUM(BS5:BW5)</f>
         <v>365431</v>
       </c>
       <c r="BY5">
@@ -1929,31 +1990,31 @@
         <v>3</v>
       </c>
       <c r="CD5">
-        <f t="shared" ref="CD5:CD15" si="30">SUM(BY5:CC5)</f>
+        <f t="shared" ref="CD5:CD15" si="32">SUM(BY5:CC5)</f>
         <v>12</v>
       </c>
       <c r="CE5" s="5">
-        <f t="shared" ref="CE5:CE8" si="31">BS5/BY5</f>
+        <f t="shared" ref="CE5:CE8" si="33">BS5/BY5</f>
         <v>29267</v>
       </c>
       <c r="CF5" s="4">
-        <f t="shared" ref="CF5:CF8" si="32">BT5/BZ5</f>
+        <f t="shared" ref="CF5:CF8" si="34">BT5/BZ5</f>
         <v>33745.5</v>
       </c>
       <c r="CG5" s="4">
-        <f t="shared" ref="CG5:CG8" si="33">BU5/CA5</f>
+        <f t="shared" ref="CG5:CG8" si="35">BU5/CA5</f>
         <v>26297.75</v>
       </c>
       <c r="CH5" s="4" t="e">
-        <f t="shared" ref="CH5:CH8" si="34">BV5/CB5</f>
+        <f t="shared" ref="CH5:CH8" si="36">BV5/CB5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI5" s="4">
-        <f t="shared" ref="CI5:CI8" si="35">BW5/CC5</f>
+        <f t="shared" ref="CI5:CI8" si="37">BW5/CC5</f>
         <v>34982.666666666664</v>
       </c>
       <c r="CJ5" s="4">
-        <f t="shared" ref="CJ5:CJ15" si="36">BX5/CD5</f>
+        <f t="shared" ref="CJ5:CJ15" si="38">BX5/CD5</f>
         <v>30452.583333333332</v>
       </c>
       <c r="CK5">
@@ -1972,32 +2033,94 @@
         <v>9.3303527832031197</v>
       </c>
       <c r="CP5" s="3">
-        <f t="shared" ref="CP5:CP15" si="37">SUM(CK5:CO5)</f>
+        <f t="shared" ref="CP5:CP15" si="39">SUM(CK5:CO5)</f>
         <v>34.796233677863995</v>
       </c>
-      <c r="CQ5" s="5"/>
+      <c r="CQ5">
+        <v>77440</v>
+      </c>
+      <c r="CR5">
+        <v>227084.6</v>
+      </c>
+      <c r="CS5">
+        <v>34904</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>15474</v>
+      </c>
       <c r="CV5" s="3">
-        <f t="shared" ref="CV5:CV15" si="38">SUM(CQ5:CU5)</f>
-        <v>0</v>
+        <f t="shared" ref="CV5:CV15" si="40">SUM(CQ5:CU5)</f>
+        <v>354902.6</v>
+      </c>
+      <c r="CW5">
+        <v>4</v>
+      </c>
+      <c r="CX5">
+        <v>5</v>
+      </c>
+      <c r="CY5">
+        <v>2</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
       </c>
       <c r="DB5">
-        <f t="shared" ref="DB5:DB15" si="39">SUM(CW5:DA5)</f>
-        <v>0</v>
-      </c>
-      <c r="DC5" s="5"/>
-      <c r="DH5" s="4" t="e">
-        <f t="shared" ref="DH5:DH15" si="40">(CP5/DB5)</f>
+        <f t="shared" ref="DB5:DB15" si="41">SUM(CW5:DA5)</f>
+        <v>12</v>
+      </c>
+      <c r="DC5" s="5">
+        <f>CQ5/CW5</f>
+        <v>19360</v>
+      </c>
+      <c r="DD5" s="5">
+        <f t="shared" si="10"/>
+        <v>45416.92</v>
+      </c>
+      <c r="DE5" s="5">
+        <f t="shared" si="10"/>
+        <v>17452</v>
+      </c>
+      <c r="DF5" s="5" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI5" s="5"/>
+      <c r="DG5" s="5">
+        <f t="shared" si="10"/>
+        <v>15474</v>
+      </c>
+      <c r="DH5" s="4">
+        <f t="shared" ref="DH5:DH12" si="42">CV5/DB5</f>
+        <v>29575.216666666664</v>
+      </c>
+      <c r="DI5" s="5">
+        <v>5.7849385738372803</v>
+      </c>
+      <c r="DJ5">
+        <v>42.716294622421202</v>
+      </c>
+      <c r="DK5">
+        <v>3.9830373764038001</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>1.04716594219207</v>
+      </c>
       <c r="DN5" s="3">
-        <f t="shared" ref="DN5:DN15" si="41">SUM(DI5:DM5)</f>
-        <v>0</v>
+        <f t="shared" ref="DN5:DN15" si="43">SUM(DI5:DM5)</f>
+        <v>53.531436514854356</v>
       </c>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="14">
         <v>602669</v>
@@ -2006,7 +2129,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>15066.725</v>
       </c>
       <c r="E6">
@@ -2025,7 +2148,7 @@
         <v>99220</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>374218.8</v>
       </c>
       <c r="K6" s="5">
@@ -2044,31 +2167,31 @@
         <v>3</v>
       </c>
       <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="1"/>
+        <v>30531.055555555555</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="2"/>
+        <v>34559</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="3"/>
+        <v>23992.25</v>
+      </c>
+      <c r="T6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="5"/>
+        <v>33073.333333333336</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="6"/>
-        <v>12.6</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="7"/>
-        <v>30531.055555555555</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="8"/>
-        <v>34559</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="9"/>
-        <v>23992.25</v>
-      </c>
-      <c r="T6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="0"/>
-        <v>33073.333333333336</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="10"/>
         <v>29699.904761904763</v>
       </c>
       <c r="W6">
@@ -2087,7 +2210,7 @@
         <v>8.2342022180557208</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35.703785705566304</v>
       </c>
       <c r="AC6">
@@ -2106,7 +2229,7 @@
         <v>92734</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>369570</v>
       </c>
       <c r="AI6">
@@ -2125,31 +2248,31 @@
         <v>3</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>29267</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>33745.5</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40514.666666666664</v>
       </c>
       <c r="AR6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30911.333333333332</v>
       </c>
       <c r="AT6" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33597.272727272728</v>
       </c>
       <c r="AU6">
@@ -2168,7 +2291,7 @@
         <v>78985</v>
       </c>
       <c r="AZ6" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>371563.3</v>
       </c>
       <c r="BA6">
@@ -2187,31 +2310,31 @@
         <v>4</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="BG6" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>29267</v>
       </c>
       <c r="BH6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>54693</v>
       </c>
       <c r="BI6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>37521.074999999997</v>
       </c>
       <c r="BJ6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>19746.25</v>
       </c>
       <c r="BL6" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30963.608333333334</v>
       </c>
       <c r="BM6">
@@ -2230,7 +2353,7 @@
         <v>6.9183015108108501</v>
       </c>
       <c r="BR6" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>33.881284832954321</v>
       </c>
       <c r="BS6">
@@ -2249,7 +2372,7 @@
         <v>48347</v>
       </c>
       <c r="BX6" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>354351.3</v>
       </c>
       <c r="BY6">
@@ -2268,31 +2391,31 @@
         <v>2</v>
       </c>
       <c r="CD6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>11.2</v>
       </c>
       <c r="CE6" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>36805.479999999996</v>
       </c>
       <c r="CF6" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>24594</v>
       </c>
       <c r="CG6" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>38605.83783783784</v>
       </c>
       <c r="CH6" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>23277.5</v>
       </c>
       <c r="CI6" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>24173.5</v>
       </c>
       <c r="CJ6" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>31638.508928571431</v>
       </c>
       <c r="CK6">
@@ -2311,32 +2434,94 @@
         <v>2.51900899410247</v>
       </c>
       <c r="CP6" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>43.140955209731992</v>
       </c>
-      <c r="CQ6" s="5"/>
+      <c r="CQ6">
+        <v>30176</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>266110.09999999998</v>
+      </c>
+      <c r="CT6">
+        <v>16434</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
       <c r="CV6" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
+        <v>312720.09999999998</v>
+      </c>
+      <c r="CW6">
+        <v>2</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>6.5</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
         <v>0</v>
       </c>
       <c r="DB6">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC6" s="5"/>
-      <c r="DH6" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>9.5</v>
+      </c>
+      <c r="DC6" s="5">
+        <f t="shared" ref="DC6:DC12" si="44">CQ6/CW6</f>
+        <v>15088</v>
+      </c>
+      <c r="DD6" s="5" t="e">
+        <f t="shared" ref="DD6:DD12" si="45">CR6/CX6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI6" s="5"/>
+      <c r="DE6" s="5">
+        <f t="shared" ref="DE6:DE12" si="46">CS6/CY6</f>
+        <v>40940.015384615384</v>
+      </c>
+      <c r="DF6" s="5">
+        <f t="shared" ref="DF6:DF12" si="47">CT6/CZ6</f>
+        <v>16434</v>
+      </c>
+      <c r="DG6" s="5" t="e">
+        <f t="shared" ref="DG6:DG12" si="48">CU6/DA6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH6" s="4">
+        <f t="shared" si="42"/>
+        <v>32917.905263157889</v>
+      </c>
+      <c r="DI6" s="5">
+        <v>2.98334300518035</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>73.358087897300706</v>
+      </c>
+      <c r="DL6">
+        <v>1.0864167213439899</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
       <c r="DN6" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>77.427847623825045</v>
       </c>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="14">
         <v>676089</v>
@@ -2345,7 +2530,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>16902.224999999999</v>
       </c>
       <c r="E7">
@@ -2364,7 +2549,7 @@
         <v>113354</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>338473</v>
       </c>
       <c r="K7" s="5">
@@ -2383,31 +2568,31 @@
         <v>3</v>
       </c>
       <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="1"/>
+        <v>41184.400000000001</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="2"/>
+        <v>42438</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="3"/>
+        <v>26224.399999999998</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="4"/>
+        <v>21639</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="5"/>
+        <v>37784.666666666664</v>
+      </c>
+      <c r="V7" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="7"/>
-        <v>41184.400000000001</v>
-      </c>
-      <c r="R7" s="4">
-        <f t="shared" si="8"/>
-        <v>42438</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="9"/>
-        <v>26224.399999999998</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="0"/>
-        <v>21639</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="0"/>
-        <v>37784.666666666664</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="10"/>
         <v>33847.300000000003</v>
       </c>
       <c r="W7">
@@ -2426,7 +2611,7 @@
         <v>2.46813089847564</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40.581182432174593</v>
       </c>
       <c r="AC7">
@@ -2445,7 +2630,7 @@
         <v>48347</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>354416.3</v>
       </c>
       <c r="AI7">
@@ -2464,31 +2649,31 @@
         <v>2</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.5</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32763.178571428572</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24594</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38698.216216216213</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23277.5</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24173.5</v>
       </c>
       <c r="AT7" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30818.808695652173</v>
       </c>
       <c r="AU7">
@@ -2507,7 +2692,7 @@
         <v>43586</v>
       </c>
       <c r="AZ7" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>306296.90000000002</v>
       </c>
       <c r="BA7">
@@ -2526,31 +2711,31 @@
         <v>2</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.5</v>
       </c>
       <c r="BG7" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>34571</v>
       </c>
       <c r="BH7" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI7">
-        <f t="shared" si="24"/>
-        <v>35194.345454545452</v>
-      </c>
-      <c r="BJ7" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BI7">
+        <f t="shared" si="26"/>
+        <v>35194.345454545452</v>
+      </c>
+      <c r="BJ7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BK7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>21793</v>
       </c>
       <c r="BL7" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>32241.778947368424</v>
       </c>
       <c r="BM7">
@@ -2569,7 +2754,7 @@
         <v>3.37500913143157</v>
       </c>
       <c r="BR7" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>47.945712590217582</v>
       </c>
       <c r="BS7">
@@ -2588,7 +2773,7 @@
         <v>115098</v>
       </c>
       <c r="BX7" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>386175.6</v>
       </c>
       <c r="BY7">
@@ -2607,31 +2792,31 @@
         <v>2</v>
       </c>
       <c r="CD7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="CE7" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>56328</v>
       </c>
       <c r="CF7" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>22175</v>
       </c>
       <c r="CG7" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>40235.200000000004</v>
       </c>
       <c r="CH7" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>15541</v>
       </c>
       <c r="CI7" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>57549</v>
       </c>
       <c r="CJ7" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>42908.399999999994</v>
       </c>
       <c r="CK7">
@@ -2650,32 +2835,94 @@
         <v>5.6956154108047397</v>
       </c>
       <c r="CP7" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>41.689815211296015</v>
       </c>
-      <c r="CQ7" s="5"/>
+      <c r="CQ7">
+        <v>29958</v>
+      </c>
+      <c r="CR7">
+        <v>285637.8</v>
+      </c>
+      <c r="CS7">
+        <v>26289</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
       <c r="CV7" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
+        <v>341884.8</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>5.2</v>
+      </c>
+      <c r="CY7">
+        <v>2</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
         <v>0</v>
       </c>
       <c r="DB7">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC7" s="5"/>
-      <c r="DH7" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DC7" s="5">
+        <f t="shared" si="44"/>
+        <v>29958</v>
+      </c>
+      <c r="DD7" s="5">
+        <f t="shared" si="45"/>
+        <v>54930.346153846149</v>
+      </c>
+      <c r="DE7" s="5">
+        <f t="shared" si="46"/>
+        <v>13144.5</v>
+      </c>
+      <c r="DF7" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI7" s="5"/>
+      <c r="DG7" s="5" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH7" s="4">
+        <f t="shared" si="42"/>
+        <v>41693.268292682929</v>
+      </c>
+      <c r="DI7" s="5">
+        <v>1.81657888889312</v>
+      </c>
+      <c r="DJ7">
+        <v>57.419334030151298</v>
+      </c>
+      <c r="DK7">
+        <v>3.3766204833984301</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
       <c r="DN7" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>62.61253340244285</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14">
         <v>667559</v>
@@ -2684,7 +2931,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>16688.974999999999</v>
       </c>
       <c r="E8">
@@ -2703,7 +2950,7 @@
         <v>91019</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>374888.6</v>
       </c>
       <c r="K8" s="5">
@@ -2722,31 +2969,31 @@
         <v>2</v>
       </c>
       <c r="P8" s="4">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="1"/>
+        <v>44355.724137931036</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="2"/>
+        <v>23937</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="3"/>
+        <v>22955.75</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="4"/>
+        <v>15541</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="5"/>
+        <v>45509.5</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" si="6"/>
-        <v>11.9</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="7"/>
-        <v>44355.724137931036</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="8"/>
-        <v>23937</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="9"/>
-        <v>22955.75</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="0"/>
-        <v>15541</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="0"/>
-        <v>45509.5</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="10"/>
         <v>31503.243697478989</v>
       </c>
       <c r="W8">
@@ -2765,7 +3012,7 @@
         <v>5.1830036878585801</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36.982171201705832</v>
       </c>
       <c r="AC8">
@@ -2784,7 +3031,7 @@
         <v>115098</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>386313.3</v>
       </c>
       <c r="AI8">
@@ -2803,31 +3050,31 @@
         <v>2</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56328</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22175</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40281.1</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15541</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>57549</v>
       </c>
       <c r="AT8" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>42923.7</v>
       </c>
       <c r="AU8">
@@ -2846,7 +3093,7 @@
         <v>86148</v>
       </c>
       <c r="AZ8" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>374972.3</v>
       </c>
       <c r="BA8">
@@ -2865,31 +3112,31 @@
         <v>2</v>
       </c>
       <c r="BF8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10.1</v>
       </c>
       <c r="BG8" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>36273</v>
       </c>
       <c r="BH8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22175</v>
       </c>
       <c r="BI8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>43551.780487804877</v>
       </c>
       <c r="BJ8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>15541</v>
       </c>
       <c r="BK8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>43074</v>
       </c>
       <c r="BL8" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>37125.9702970297</v>
       </c>
       <c r="BM8">
@@ -2908,7 +3155,7 @@
         <v>3.5062097787857001</v>
       </c>
       <c r="BR8" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>142.31747775077753</v>
       </c>
       <c r="BS8">
@@ -2927,7 +3174,7 @@
         <v>111370</v>
       </c>
       <c r="BX8" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>388059.7</v>
       </c>
       <c r="BY8">
@@ -2946,31 +3193,31 @@
         <v>3</v>
       </c>
       <c r="CD8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>12.3</v>
       </c>
       <c r="CE8" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>21334.454545454544</v>
       </c>
       <c r="CF8" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>38004.5</v>
       </c>
       <c r="CG8" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>38990.666666666664</v>
       </c>
       <c r="CH8" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>13305</v>
       </c>
       <c r="CI8" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>37123.333333333336</v>
       </c>
       <c r="CJ8" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>31549.569105691055</v>
       </c>
       <c r="CK8">
@@ -2989,32 +3236,94 @@
         <v>6.2964699268341002</v>
       </c>
       <c r="CP8" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>33.994861316680804</v>
       </c>
-      <c r="CQ8" s="5"/>
+      <c r="CQ8">
+        <v>32952</v>
+      </c>
+      <c r="CR8">
+        <v>8262</v>
+      </c>
+      <c r="CS8">
+        <v>289370.40000000002</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>7706</v>
+      </c>
       <c r="CV8" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>338290.4</v>
+      </c>
+      <c r="CW8">
+        <v>2</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>6.2</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>1</v>
       </c>
       <c r="DB8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC8" s="5"/>
-      <c r="DH8" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="DC8" s="5">
+        <f t="shared" si="44"/>
+        <v>16476</v>
+      </c>
+      <c r="DD8" s="5">
+        <f t="shared" si="45"/>
+        <v>8262</v>
+      </c>
+      <c r="DE8" s="5">
+        <f t="shared" si="46"/>
+        <v>46672.645161290326</v>
+      </c>
+      <c r="DF8" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI8" s="5"/>
+      <c r="DG8" s="5">
+        <f t="shared" si="48"/>
+        <v>7706</v>
+      </c>
+      <c r="DH8" s="4">
+        <f t="shared" si="42"/>
+        <v>33165.725490196084</v>
+      </c>
+      <c r="DI8" s="5">
+        <v>3.4646077156066801</v>
+      </c>
+      <c r="DJ8">
+        <v>1.1642884016036901</v>
+      </c>
+      <c r="DK8">
+        <v>69.958357524871801</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>1.1406260251998901</v>
+      </c>
       <c r="DN8" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>75.727879667282068</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14">
         <v>737831</v>
@@ -3023,7 +3332,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>18445.775000000001</v>
       </c>
       <c r="E9">
@@ -3042,7 +3351,7 @@
         <v>97287</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>398350</v>
       </c>
       <c r="K9" s="5">
@@ -3061,31 +3370,31 @@
         <v>2</v>
       </c>
       <c r="P9" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="1"/>
+        <v>30665.85</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="2"/>
+        <v>29441</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="3"/>
+        <v>35404.200000000004</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="4"/>
+        <v>13305</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="5"/>
+        <v>48643.5</v>
+      </c>
+      <c r="V9" s="3">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="7"/>
-        <v>30665.85</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="8"/>
-        <v>29441</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="9"/>
-        <v>35404.200000000004</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="0"/>
-        <v>13305</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="0"/>
-        <v>48643.5</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="10"/>
         <v>33195.833333333336</v>
       </c>
       <c r="W9">
@@ -3104,7 +3413,7 @@
         <v>5.3553197145461997</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28.855096769332789</v>
       </c>
       <c r="AC9">
@@ -3123,7 +3432,7 @@
         <v>111370</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>388546.2</v>
       </c>
       <c r="AI9">
@@ -3142,31 +3451,31 @@
         <v>3</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.1</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22867.77419354839</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38004.5</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38990.700000000004</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>13305</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>37123.333333333336</v>
       </c>
       <c r="AT9" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>32111.25619834711</v>
       </c>
       <c r="AU9">
@@ -3185,7 +3494,7 @@
         <v>88570</v>
       </c>
       <c r="AZ9" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>371712.9</v>
       </c>
       <c r="BA9">
@@ -3204,31 +3513,31 @@
         <v>2</v>
       </c>
       <c r="BF9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11.1</v>
       </c>
       <c r="BG9" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>22693.516129032254</v>
       </c>
       <c r="BH9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22102</v>
       </c>
       <c r="BI9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>42147.25</v>
       </c>
       <c r="BJ9" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>44285</v>
       </c>
       <c r="BL9" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>33487.648648648654</v>
       </c>
       <c r="BM9">
@@ -3247,7 +3556,7 @@
         <v>4.6642918825149504</v>
       </c>
       <c r="BR9" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>43.964445281028723</v>
       </c>
       <c r="BS9">
@@ -3266,7 +3575,7 @@
         <v>152544.29999999999</v>
       </c>
       <c r="BX9" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>384436</v>
       </c>
       <c r="BY9">
@@ -3285,31 +3594,31 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="CD9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10.600000000000001</v>
       </c>
       <c r="CE9" s="5">
-        <f t="shared" ref="CE9:CE15" si="42">BS9/BY9</f>
+        <f t="shared" ref="CE9:CE15" si="49">BS9/BY9</f>
         <v>49621</v>
       </c>
       <c r="CF9" s="5" t="e">
-        <f t="shared" ref="CF9:CF15" si="43">BT9/BZ9</f>
+        <f t="shared" ref="CF9:CF15" si="50">BT9/BZ9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CG9" s="5">
-        <f t="shared" ref="CG9:CG15" si="44">BU9/CA9</f>
+        <f t="shared" ref="CG9:CG15" si="51">BU9/CA9</f>
         <v>35851.270270270274</v>
       </c>
       <c r="CH9" s="5" t="e">
-        <f t="shared" ref="CH9:CH15" si="45">BV9/CB9</f>
+        <f t="shared" ref="CH9:CH15" si="52">BV9/CB9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI9" s="5">
-        <f t="shared" ref="CI9:CI15" si="46">BW9/CC9</f>
+        <f t="shared" ref="CI9:CI15" si="53">BW9/CC9</f>
         <v>31131.489795918362</v>
       </c>
       <c r="CJ9" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>36267.547169811318</v>
       </c>
       <c r="CK9">
@@ -3328,32 +3637,94 @@
         <v>13.1108043909072</v>
       </c>
       <c r="CP9" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>37.889434576034361</v>
       </c>
-      <c r="CQ9" s="5"/>
+      <c r="CQ9">
+        <v>337297.5</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>26493</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
       <c r="CV9" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
+        <v>363790.5</v>
+      </c>
+      <c r="CW9">
+        <v>6.9</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>2</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
         <v>0</v>
       </c>
       <c r="DB9">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC9" s="5"/>
-      <c r="DH9" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>8.9</v>
+      </c>
+      <c r="DC9" s="5">
+        <f t="shared" si="44"/>
+        <v>48883.695652173912</v>
+      </c>
+      <c r="DD9" s="5" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI9" s="5"/>
+      <c r="DE9" s="5">
+        <f t="shared" si="46"/>
+        <v>13246.5</v>
+      </c>
+      <c r="DF9" s="5" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG9" s="5" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH9" s="4">
+        <f t="shared" si="42"/>
+        <v>40875.337078651683</v>
+      </c>
+      <c r="DI9" s="5">
+        <v>69.020643329620299</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>3.8260488748550401</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
       <c r="DN9" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>72.846692204475346</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="14">
         <v>598118</v>
@@ -3362,7 +3733,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>14952.95</v>
       </c>
       <c r="E10">
@@ -3381,7 +3752,7 @@
         <v>141420</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>411702</v>
       </c>
       <c r="K10" s="5">
@@ -3400,31 +3771,31 @@
         <v>3</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="1"/>
+        <v>43523.666666666664</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="2"/>
+        <v>53362</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="3"/>
+        <v>21587.25</v>
+      </c>
+      <c r="T10" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="5"/>
+        <v>47140</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="7"/>
-        <v>43523.666666666664</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="8"/>
-        <v>53362</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="9"/>
-        <v>21587.25</v>
-      </c>
-      <c r="T10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="0"/>
-        <v>47140</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="10"/>
         <v>37427.454545454544</v>
       </c>
       <c r="W10">
@@ -3443,7 +3814,7 @@
         <v>13.228162860870301</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34.361502480506779</v>
       </c>
       <c r="AC10">
@@ -3462,7 +3833,7 @@
         <v>161670.5</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>389909.5</v>
       </c>
       <c r="AI10">
@@ -3481,31 +3852,31 @@
         <v>3.8</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>47264.28571428571</v>
       </c>
       <c r="AP10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="16"/>
-        <v>32246</v>
-      </c>
-      <c r="AR10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AQ10">
+        <f t="shared" si="18"/>
+        <v>32246</v>
+      </c>
+      <c r="AR10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>42544.868421052633</v>
       </c>
       <c r="AT10" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>39384.797979797986</v>
       </c>
       <c r="AU10">
@@ -3524,7 +3895,7 @@
         <v>166606.20000000001</v>
       </c>
       <c r="AZ10" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>404009.80000000005</v>
       </c>
       <c r="BA10">
@@ -3543,31 +3914,31 @@
         <v>3.8</v>
       </c>
       <c r="BF10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11.100000000000001</v>
       </c>
       <c r="BG10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>46540.541666666672</v>
       </c>
       <c r="BH10" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI10">
-        <f t="shared" si="24"/>
-        <v>25654.34693877551</v>
-      </c>
-      <c r="BJ10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BI10">
+        <f t="shared" si="26"/>
+        <v>25654.34693877551</v>
+      </c>
+      <c r="BJ10" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BK10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>43843.736842105267</v>
       </c>
       <c r="BL10" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>36397.279279279275</v>
       </c>
       <c r="BM10">
@@ -3586,7 +3957,7 @@
         <v>11.804576349258401</v>
       </c>
       <c r="BR10" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>39.206452560424701</v>
       </c>
       <c r="BS10">
@@ -3605,7 +3976,7 @@
         <v>119308</v>
       </c>
       <c r="BX10" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>304843</v>
       </c>
       <c r="BY10">
@@ -3624,75 +3995,137 @@
         <v>3</v>
       </c>
       <c r="CD10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="CE10" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>32037.5</v>
       </c>
       <c r="CF10" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>51594</v>
       </c>
       <c r="CG10" s="5">
+        <f t="shared" si="51"/>
+        <v>34933</v>
+      </c>
+      <c r="CH10" s="5" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI10" s="5">
+        <f t="shared" si="53"/>
+        <v>39769.333333333336</v>
+      </c>
+      <c r="CJ10" s="13">
+        <f t="shared" si="38"/>
+        <v>38105.375</v>
+      </c>
+      <c r="CK10">
+        <v>6.8691866397857604</v>
+      </c>
+      <c r="CL10">
+        <v>3.0188494443893399</v>
+      </c>
+      <c r="CM10">
+        <v>17.964353466033899</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>12.3501398324966</v>
+      </c>
+      <c r="CP10" s="3">
+        <f t="shared" si="39"/>
+        <v>40.202529382705599</v>
+      </c>
+      <c r="CQ10">
+        <v>28339</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>234566.2</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>33051</v>
+      </c>
+      <c r="CV10" s="3">
+        <f t="shared" si="40"/>
+        <v>295956.2</v>
+      </c>
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>2</v>
+      </c>
+      <c r="DB10">
+        <f t="shared" si="41"/>
+        <v>8.1</v>
+      </c>
+      <c r="DC10" s="5">
         <f t="shared" si="44"/>
-        <v>34933</v>
-      </c>
-      <c r="CH10" s="5" t="e">
+        <v>28339</v>
+      </c>
+      <c r="DD10" s="5" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI10" s="5">
+      <c r="DE10" s="5">
         <f t="shared" si="46"/>
-        <v>39769.333333333336</v>
-      </c>
-      <c r="CJ10" s="13">
-        <f t="shared" si="36"/>
-        <v>38105.375</v>
-      </c>
-      <c r="CK10">
-        <v>6.8691866397857604</v>
-      </c>
-      <c r="CL10">
-        <v>3.0188494443893399</v>
-      </c>
-      <c r="CM10">
-        <v>17.964353466033899</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>12.3501398324966</v>
-      </c>
-      <c r="CP10" s="3">
-        <f t="shared" si="37"/>
-        <v>40.202529382705599</v>
-      </c>
-      <c r="CQ10" s="5"/>
-      <c r="CV10" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="DB10">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC10" s="5"/>
-      <c r="DH10" s="4" t="e">
-        <f t="shared" si="40"/>
+        <v>45993.372549019616</v>
+      </c>
+      <c r="DF10" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI10" s="5"/>
+      <c r="DG10" s="5">
+        <f t="shared" si="48"/>
+        <v>16525.5</v>
+      </c>
+      <c r="DH10" s="4">
+        <f t="shared" si="42"/>
+        <v>36537.802469135808</v>
+      </c>
+      <c r="DI10" s="5">
+        <v>3.31782441139221</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>81.595652031898496</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>2.8147403955459498</v>
+      </c>
       <c r="DN10" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>87.728216838836659</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="14">
         <v>610706</v>
@@ -3701,7 +4134,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>15267.65</v>
       </c>
       <c r="E11">
@@ -3720,7 +4153,7 @@
         <v>111541.3</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>335625.2</v>
       </c>
       <c r="K11" s="5">
@@ -3739,31 +4172,31 @@
         <v>2.5</v>
       </c>
       <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="1"/>
+        <v>34983.333333333336</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="2"/>
+        <v>27819.5</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="3"/>
+        <v>21894.793103448275</v>
+      </c>
+      <c r="T11" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="5"/>
+        <v>44616.520000000004</v>
+      </c>
+      <c r="V11" s="3">
         <f t="shared" si="6"/>
-        <v>10.4</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="7"/>
-        <v>34983.333333333336</v>
-      </c>
-      <c r="R11" s="4">
-        <f t="shared" si="8"/>
-        <v>27819.5</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="9"/>
-        <v>21894.793103448275</v>
-      </c>
-      <c r="T11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="0"/>
-        <v>44616.520000000004</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="10"/>
         <v>32271.653846153848</v>
       </c>
       <c r="W11">
@@ -3782,7 +4215,7 @@
         <v>13.4980149507522</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41.449268984794521</v>
       </c>
       <c r="AC11">
@@ -3801,7 +4234,7 @@
         <v>119308</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>304679.59999999998</v>
       </c>
       <c r="AI11">
@@ -3820,31 +4253,31 @@
         <v>3</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31955.8</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51594</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>34933</v>
       </c>
       <c r="AR11" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39769.333333333336</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38084.949999999997</v>
       </c>
       <c r="AU11">
@@ -3863,7 +4296,7 @@
         <v>63372.7</v>
       </c>
       <c r="AZ11" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>318060.90000000002</v>
       </c>
       <c r="BA11">
@@ -3882,31 +4315,31 @@
         <v>2</v>
       </c>
       <c r="BF11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.1</v>
       </c>
       <c r="BG11" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>38276.799999999996</v>
       </c>
       <c r="BH11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15356</v>
       </c>
       <c r="BI11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>40161.870967741932</v>
       </c>
       <c r="BJ11" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>31686.35</v>
       </c>
       <c r="BL11" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34951.747252747256</v>
       </c>
       <c r="BM11">
@@ -3925,7 +4358,7 @@
         <v>5.3942816972732501</v>
       </c>
       <c r="BR11" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>46.582948637008563</v>
       </c>
       <c r="BS11">
@@ -3944,7 +4377,7 @@
         <v>117496</v>
       </c>
       <c r="BX11" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>347835.3</v>
       </c>
       <c r="BY11">
@@ -3963,75 +4396,137 @@
         <v>2</v>
       </c>
       <c r="CD11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.2</v>
       </c>
       <c r="CE11" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>57824</v>
       </c>
       <c r="CF11" s="5" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG11" s="5">
+        <f t="shared" si="51"/>
+        <v>35841.03125</v>
+      </c>
+      <c r="CH11" s="5" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CI11" s="5">
+        <f t="shared" si="53"/>
+        <v>58748</v>
+      </c>
+      <c r="CJ11" s="13">
+        <f t="shared" si="38"/>
+        <v>48310.458333333328</v>
+      </c>
+      <c r="CK11">
+        <v>13.1864456176757</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>15.9439073324203</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>13.1917854070663</v>
+      </c>
+      <c r="CP11" s="3">
+        <f t="shared" si="39"/>
+        <v>42.322138357162302</v>
+      </c>
+      <c r="CQ11">
+        <v>25470</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>290865.3</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>14322</v>
+      </c>
+      <c r="CV11" s="3">
+        <f t="shared" si="40"/>
+        <v>330657.3</v>
+      </c>
+      <c r="CW11">
+        <v>2</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>5.9</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <f t="shared" si="41"/>
+        <v>8.9</v>
+      </c>
+      <c r="DC11" s="5">
         <f t="shared" si="44"/>
-        <v>35841.03125</v>
-      </c>
-      <c r="CH11" s="5" t="e">
+        <v>12735</v>
+      </c>
+      <c r="DD11" s="5" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI11" s="5">
+      <c r="DE11" s="5">
         <f t="shared" si="46"/>
-        <v>58748</v>
-      </c>
-      <c r="CJ11" s="13">
-        <f t="shared" si="36"/>
-        <v>48310.458333333328</v>
-      </c>
-      <c r="CK11">
-        <v>13.1864456176757</v>
-      </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>15.9439073324203</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11">
-        <v>13.1917854070663</v>
-      </c>
-      <c r="CP11" s="3">
-        <f t="shared" si="37"/>
-        <v>42.322138357162302</v>
-      </c>
-      <c r="CQ11" s="5"/>
-      <c r="CV11" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="DB11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC11" s="5"/>
-      <c r="DH11" s="4" t="e">
-        <f t="shared" si="40"/>
+        <v>49299.203389830502</v>
+      </c>
+      <c r="DF11" s="5" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI11" s="5"/>
+      <c r="DG11" s="5">
+        <f t="shared" si="48"/>
+        <v>14322</v>
+      </c>
+      <c r="DH11" s="4">
+        <f t="shared" si="42"/>
+        <v>37152.505617977527</v>
+      </c>
+      <c r="DI11" s="5">
+        <v>2.5956106662750198</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>90.378083276748598</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>1.2396449327468799</v>
+      </c>
       <c r="DN11" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>94.213338875770503</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="14">
         <v>662041</v>
@@ -4040,7 +4535,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>16551.025000000001</v>
       </c>
       <c r="E12">
@@ -4059,7 +4554,7 @@
         <v>119486.6</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>331210</v>
       </c>
       <c r="K12" s="5">
@@ -4078,31 +4573,31 @@
         <v>3</v>
       </c>
       <c r="P12" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="1"/>
+        <v>55496</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="2"/>
+        <v>31825</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="3"/>
+        <v>22968.799999999999</v>
+      </c>
+      <c r="T12" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="5"/>
+        <v>39828.866666666669</v>
+      </c>
+      <c r="V12" s="3">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="7"/>
-        <v>55496</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="8"/>
-        <v>31825</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="9"/>
-        <v>22968.799999999999</v>
-      </c>
-      <c r="T12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="0"/>
-        <v>39828.866666666669</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="10"/>
         <v>36801.111111111109</v>
       </c>
       <c r="W12">
@@ -4121,7 +4616,7 @@
         <v>14.1775552749633</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47.111652469634905</v>
       </c>
       <c r="AC12">
@@ -4140,7 +4635,7 @@
         <v>117496</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>347826.3</v>
       </c>
       <c r="AI12">
@@ -4159,31 +4654,31 @@
         <v>2</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.2</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>57824</v>
       </c>
       <c r="AP12" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="16"/>
-        <v>35838.21875</v>
-      </c>
-      <c r="AR12" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AQ12">
+        <f t="shared" si="18"/>
+        <v>35838.21875</v>
+      </c>
+      <c r="AR12" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>58748</v>
       </c>
       <c r="AT12" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>48309.208333333328</v>
       </c>
       <c r="AU12">
@@ -4202,7 +4697,7 @@
         <v>148515.4</v>
       </c>
       <c r="AZ12" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>350797.9</v>
       </c>
       <c r="BA12">
@@ -4221,31 +4716,31 @@
         <v>3</v>
       </c>
       <c r="BF12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10.4</v>
       </c>
       <c r="BG12" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>30700.666666666668</v>
       </c>
       <c r="BH12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>12392</v>
       </c>
       <c r="BI12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28761.323529411766</v>
       </c>
       <c r="BJ12" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>49505.133333333331</v>
       </c>
       <c r="BL12" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>33730.567307692312</v>
       </c>
       <c r="BM12">
@@ -4264,7 +4759,7 @@
         <v>20.226182770729</v>
       </c>
       <c r="BR12" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>45.047735524177462</v>
       </c>
       <c r="BS12">
@@ -4283,7 +4778,7 @@
         <v>78241</v>
       </c>
       <c r="BX12" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>379244</v>
       </c>
       <c r="BY12">
@@ -4302,31 +4797,31 @@
         <v>2</v>
       </c>
       <c r="CD12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="CE12" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>46472.533333333333</v>
       </c>
       <c r="CF12" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>34697</v>
       </c>
       <c r="CG12" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>36818.133333333331</v>
       </c>
       <c r="CH12" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>16434</v>
       </c>
       <c r="CI12" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>39120.5</v>
       </c>
       <c r="CJ12" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>37924.400000000001</v>
       </c>
       <c r="CK12">
@@ -4345,35 +4840,94 @@
         <v>5.2553614854812603</v>
       </c>
       <c r="CP12" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>46.419375634193393</v>
       </c>
+      <c r="CQ12">
+        <v>27732</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>287690</v>
+      </c>
+      <c r="CT12">
+        <v>16434</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
       <c r="CV12" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
+        <v>331856</v>
+      </c>
+      <c r="CW12">
+        <v>1</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>5.7</v>
+      </c>
+      <c r="CZ12">
+        <v>1</v>
+      </c>
+      <c r="DA12">
         <v>0</v>
       </c>
       <c r="DB12">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC12" s="5"/>
-      <c r="DD12" s="4"/>
-      <c r="DE12" s="4"/>
-      <c r="DF12" s="4"/>
-      <c r="DG12" s="4"/>
-      <c r="DH12" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>7.7</v>
+      </c>
+      <c r="DC12" s="5">
+        <f t="shared" si="44"/>
+        <v>27732</v>
+      </c>
+      <c r="DD12" s="5" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI12" s="5"/>
+      <c r="DE12" s="5">
+        <f t="shared" si="46"/>
+        <v>50471.929824561405</v>
+      </c>
+      <c r="DF12" s="5">
+        <f t="shared" si="47"/>
+        <v>16434</v>
+      </c>
+      <c r="DG12" s="5" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH12" s="4">
+        <f t="shared" si="42"/>
+        <v>43098.181818181816</v>
+      </c>
+      <c r="DI12" s="5">
+        <v>2.81464302539825</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>83.618482232093797</v>
+      </c>
+      <c r="DL12">
+        <v>1.1014414548873901</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
       <c r="DN12" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>87.534566712379444</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="14">
         <v>700945</v>
@@ -4382,7 +4936,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17523.625</v>
       </c>
       <c r="E13">
@@ -4401,7 +4955,7 @@
         <v>90482</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>370922</v>
       </c>
       <c r="K13" s="5">
@@ -4420,31 +4974,31 @@
         <v>3</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P13:P15" si="54">SUM(K13:O13)</f>
         <v>11.9</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q13:Q14" si="55">E13/K13</f>
         <v>29316.657894736843</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="R13:R14" si="56">F13/L13</f>
         <v>23496.5</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S13:S14" si="57">G13/M13</f>
         <v>43686.523809523809</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>30302</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>30160.666666666668</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="V13:V15" si="58">J13/P13</f>
         <v>31169.915966386554</v>
       </c>
       <c r="W13">
@@ -4463,7 +5017,7 @@
         <v>6.2061499595641996</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45.026638197898762</v>
       </c>
       <c r="AC13">
@@ -4482,7 +5036,7 @@
         <v>85926</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>369791.2</v>
       </c>
       <c r="AI13">
@@ -4501,31 +5055,31 @@
         <v>2</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.1</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>44780.870967741939</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34697</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36782.5</v>
       </c>
       <c r="AR13" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>42963</v>
       </c>
       <c r="AT13" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40636.395604395606</v>
       </c>
       <c r="AU13">
@@ -4544,7 +5098,7 @@
         <v>67785</v>
       </c>
       <c r="AZ13" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>366741.4</v>
       </c>
       <c r="BA13">
@@ -4563,31 +5117,31 @@
         <v>2</v>
       </c>
       <c r="BF13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.1</v>
       </c>
       <c r="BG13" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>34704.133333333331</v>
       </c>
       <c r="BH13" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34697</v>
       </c>
       <c r="BI13" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>51660.322580645159</v>
       </c>
       <c r="BJ13" s="5" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK13" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>33892.5</v>
       </c>
       <c r="BL13" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>40301.252747252751</v>
       </c>
       <c r="BM13">
@@ -4606,7 +5160,7 @@
         <v>3.0675095558166499</v>
       </c>
       <c r="BR13" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>49.506073975562956</v>
       </c>
       <c r="BS13">
@@ -4625,7 +5179,7 @@
         <v>137685.4</v>
       </c>
       <c r="BX13" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>380580.1</v>
       </c>
       <c r="BY13">
@@ -4644,31 +5198,31 @@
         <v>2.8</v>
       </c>
       <c r="CD13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>11.3</v>
       </c>
       <c r="CE13" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>34380.815789473687</v>
       </c>
       <c r="CF13" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>24848</v>
       </c>
       <c r="CG13" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>23621.513513513513</v>
       </c>
       <c r="CH13" s="5" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI13" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>49173.357142857145</v>
       </c>
       <c r="CJ13" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>33679.654867256635</v>
       </c>
       <c r="CK13">
@@ -4687,35 +5241,94 @@
         <v>10.178366971015899</v>
       </c>
       <c r="CP13" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>39.210063433647058</v>
       </c>
+      <c r="CQ13">
+        <v>289096.90000000002</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>29313</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>34934</v>
+      </c>
       <c r="CV13" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>353343.9</v>
+      </c>
+      <c r="CW13">
+        <v>5.2</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>2</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>1</v>
       </c>
       <c r="DB13">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC13" s="5"/>
-      <c r="DD13" s="4"/>
-      <c r="DE13" s="4"/>
-      <c r="DF13" s="4"/>
-      <c r="DG13" s="4"/>
-      <c r="DH13" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DC13" s="5">
+        <f>CQ13/CW13</f>
+        <v>55595.557692307695</v>
+      </c>
+      <c r="DD13" s="5" t="e">
+        <f t="shared" ref="DD13:DG13" si="59">CR13/CX13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI13" s="5"/>
+      <c r="DE13" s="5">
+        <f t="shared" si="59"/>
+        <v>14656.5</v>
+      </c>
+      <c r="DF13" s="5" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG13" s="5">
+        <f t="shared" si="59"/>
+        <v>34934</v>
+      </c>
+      <c r="DH13" s="4">
+        <f>CV13/DB13</f>
+        <v>43090.71951219513</v>
+      </c>
+      <c r="DI13" s="5">
+        <v>64.132511591911296</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>5.4167600870132402</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>1.45205290317535</v>
+      </c>
       <c r="DN13" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>71.001324582099897</v>
       </c>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="14">
         <v>700945</v>
@@ -4724,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17523.625</v>
       </c>
       <c r="E14">
@@ -4743,7 +5356,7 @@
         <v>164862.9</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>393485.19999999995</v>
       </c>
       <c r="K14">
@@ -4762,31 +5375,31 @@
         <v>2</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="55"/>
         <v>27880.837837837837</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="56"/>
         <v>44409</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>27018.066666666666</v>
       </c>
       <c r="T14" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>82431.45</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>40565.484536082469</v>
       </c>
       <c r="W14">
@@ -4805,7 +5418,7 @@
         <v>10.102715826034499</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41.380345439910748</v>
       </c>
       <c r="AC14">
@@ -4824,7 +5437,7 @@
         <v>128962</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>373415.3</v>
       </c>
       <c r="AI14" s="5">
@@ -4843,31 +5456,31 @@
         <v>2</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>37580.216216216213</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28910</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25498.833333333332</v>
       </c>
       <c r="AR14" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>64481</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38496.422680412375</v>
       </c>
       <c r="AU14">
@@ -4886,7 +5499,7 @@
         <v>128962</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>373216.5</v>
       </c>
       <c r="BA14">
@@ -4905,31 +5518,31 @@
         <v>2</v>
       </c>
       <c r="BF14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="BG14" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>37550.405405405407</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28910</v>
       </c>
       <c r="BI14" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>25469.333333333332</v>
       </c>
       <c r="BJ14" s="5" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK14" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>64481</v>
       </c>
       <c r="BL14" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>38475.927835051552</v>
       </c>
       <c r="BM14" s="5">
@@ -4948,7 +5561,7 @@
         <v>9.8194148302078208</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>41.211841726303</v>
       </c>
       <c r="BS14">
@@ -4967,7 +5580,7 @@
         <v>128962</v>
       </c>
       <c r="BX14" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>373246.7</v>
       </c>
       <c r="BY14">
@@ -4986,31 +5599,31 @@
         <v>2</v>
       </c>
       <c r="CD14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="CE14" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>37546.135135135133</v>
       </c>
       <c r="CF14" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>28910</v>
       </c>
       <c r="CG14" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>25484.666666666668</v>
       </c>
       <c r="CH14" s="5" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI14" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>64481</v>
       </c>
       <c r="CJ14" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>38479.041237113408</v>
       </c>
       <c r="CK14">
@@ -5029,35 +5642,94 @@
         <v>9.9166703224182093</v>
       </c>
       <c r="CP14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>40.268254518508812</v>
       </c>
+      <c r="CQ14">
+        <v>24418</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>29109</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>274644.40000000002</v>
+      </c>
       <c r="CV14" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>328171.40000000002</v>
+      </c>
+      <c r="CW14">
+        <v>1</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>2</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>5.2</v>
       </c>
       <c r="DB14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC14" s="5"/>
-      <c r="DD14" s="4"/>
-      <c r="DE14" s="4"/>
-      <c r="DF14" s="4"/>
-      <c r="DG14" s="4"/>
-      <c r="DH14" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="DC14" s="5">
+        <f t="shared" ref="DC14:DC15" si="60">CQ14/CW14</f>
+        <v>24418</v>
+      </c>
+      <c r="DD14" s="5" t="e">
+        <f t="shared" ref="DD14:DD15" si="61">CR14/CX14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI14" s="5"/>
+      <c r="DE14" s="5">
+        <f t="shared" ref="DE14:DE15" si="62">CS14/CY14</f>
+        <v>14554.5</v>
+      </c>
+      <c r="DF14" s="5" t="e">
+        <f t="shared" ref="DF14:DF15" si="63">CT14/CZ14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG14" s="5">
+        <f t="shared" ref="DG14:DG15" si="64">CU14/DA14</f>
+        <v>52816.230769230773</v>
+      </c>
+      <c r="DH14" s="4">
+        <f t="shared" ref="DH14:DH15" si="65">CV14/DB14</f>
+        <v>40020.902439024394</v>
+      </c>
+      <c r="DI14" s="5">
+        <v>2.1218702077865599</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>5.7092997789382904</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>68.005332326889004</v>
+      </c>
       <c r="DN14" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>75.836502313613849</v>
       </c>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="14">
         <v>614093</v>
@@ -5066,7 +5738,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>15352.325000000001</v>
       </c>
       <c r="E15">
@@ -5085,7 +5757,7 @@
         <v>139668.1</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>367211.1</v>
       </c>
       <c r="K15">
@@ -5104,31 +5776,31 @@
         <v>3.9</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>10.9</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" ref="Q15" si="47">E15/K15</f>
+        <f t="shared" ref="Q15" si="66">E15/K15</f>
         <v>32574.333333333332</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" ref="R15" si="48">F15/L15</f>
+        <f t="shared" ref="R15" si="67">F15/L15</f>
         <v>24472</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" ref="S15" si="49">G15/M15</f>
+        <f t="shared" ref="S15" si="68">G15/M15</f>
         <v>40438</v>
       </c>
       <c r="T15" s="5" t="e">
-        <f t="shared" ref="T15" si="50">H15/N15</f>
+        <f t="shared" ref="T15" si="69">H15/N15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" ref="U15" si="51">I15/O15</f>
+        <f t="shared" ref="U15" si="70">I15/O15</f>
         <v>35812.333333333336</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="58"/>
         <v>33689.091743119265</v>
       </c>
       <c r="W15">
@@ -5147,7 +5819,7 @@
         <v>11.2433337926864</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33.354327917098878</v>
       </c>
       <c r="AC15">
@@ -5166,7 +5838,7 @@
         <v>139579</v>
       </c>
       <c r="AH15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>367122</v>
       </c>
       <c r="AI15" s="5">
@@ -5185,31 +5857,31 @@
         <v>4</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32574.333333333332</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24472</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40438</v>
       </c>
       <c r="AR15" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>34894.75</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33374.727272727272</v>
       </c>
       <c r="AU15">
@@ -5228,7 +5900,7 @@
         <v>122710.7</v>
       </c>
       <c r="AZ15" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>351574.7</v>
       </c>
       <c r="BA15">
@@ -5247,31 +5919,31 @@
         <v>3</v>
       </c>
       <c r="BF15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11.2</v>
       </c>
       <c r="BG15" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16598.25</v>
       </c>
       <c r="BH15" s="5" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI15" s="5">
-        <f t="shared" si="24"/>
-        <v>38683.571428571428</v>
-      </c>
-      <c r="BJ15" s="5" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BI15" s="5">
+        <f t="shared" si="26"/>
+        <v>38683.571428571428</v>
+      </c>
+      <c r="BJ15" s="5" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BK15" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>40903.566666666666</v>
       </c>
       <c r="BL15" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>31390.598214285717</v>
       </c>
       <c r="BM15">
@@ -5290,7 +5962,7 @@
         <v>7.9770816564559901</v>
       </c>
       <c r="BR15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>46.313113808631826</v>
       </c>
       <c r="BS15">
@@ -5309,7 +5981,7 @@
         <v>133258.29999999999</v>
       </c>
       <c r="BX15" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>351150.3</v>
       </c>
       <c r="BY15">
@@ -5328,31 +6000,31 @@
         <v>3.1</v>
       </c>
       <c r="CD15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>12.1</v>
       </c>
       <c r="CE15" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>16598.25</v>
       </c>
       <c r="CF15" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>36447</v>
       </c>
       <c r="CG15" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>28763</v>
       </c>
       <c r="CH15" s="5" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI15" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>42986.548387096773</v>
       </c>
       <c r="CJ15" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>29020.685950413223</v>
       </c>
       <c r="CK15">
@@ -5371,77 +6043,116 @@
         <v>11.6557870864868</v>
       </c>
       <c r="CP15" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>36.825112581252938</v>
       </c>
+      <c r="CQ15">
+        <v>34783</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>301185.2</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>7706</v>
+      </c>
       <c r="CV15" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>343674.2</v>
+      </c>
+      <c r="CW15">
+        <v>2</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>7.1</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>1</v>
       </c>
       <c r="DB15">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="DC15" s="5"/>
-      <c r="DD15" s="4"/>
-      <c r="DE15" s="4"/>
-      <c r="DF15" s="4"/>
-      <c r="DG15" s="4"/>
-      <c r="DH15" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>10.1</v>
+      </c>
+      <c r="DC15" s="5">
+        <f t="shared" si="60"/>
+        <v>17391.5</v>
+      </c>
+      <c r="DD15" s="5" t="e">
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DI15" s="5"/>
+      <c r="DE15" s="5">
+        <f t="shared" si="62"/>
+        <v>42420.450704225354</v>
+      </c>
+      <c r="DF15" s="5" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG15" s="5">
+        <f t="shared" si="64"/>
+        <v>7706</v>
+      </c>
+      <c r="DH15" s="4">
+        <f t="shared" si="65"/>
+        <v>34027.148514851484</v>
+      </c>
+      <c r="DI15" s="5">
+        <v>3.6034900903701699</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>69.511962938308699</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>1.1865717649459799</v>
+      </c>
       <c r="DN15" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>74.302024793624852</v>
       </c>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="14">
-        <v>40</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="4"/>
-      <c r="J16" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="5"/>
-      <c r="P16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="5"/>
-      <c r="V16" s="3">
-        <f t="shared" ref="V15:V30" si="52">SUM(Q16:U16)</f>
-        <v>0</v>
-      </c>
+      <c r="V16" s="3"/>
       <c r="W16" s="5"/>
-      <c r="AB16" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB16" s="3"/>
       <c r="AC16" s="5"/>
-      <c r="AH16" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH16" s="4"/>
       <c r="AI16" s="5"/>
       <c r="AN16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AT16" s="3">
-        <f t="shared" ref="AT16:AT30" si="53">SUM(AO16:AS16)</f>
+        <f t="shared" ref="AT16:AT30" si="71">SUM(AO16:AS16)</f>
         <v>0</v>
       </c>
       <c r="BA16" s="5"/>
@@ -5459,49 +6170,29 @@
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="14">
-        <v>40</v>
-      </c>
-      <c r="D17" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="4"/>
-      <c r="J17" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="5"/>
-      <c r="P17" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="5"/>
-      <c r="V17" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V17" s="3"/>
       <c r="W17" s="5"/>
-      <c r="AB17" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB17" s="3"/>
       <c r="AC17" s="5"/>
-      <c r="AH17" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH17" s="4"/>
       <c r="AI17" s="5"/>
       <c r="AN17" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AT17" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA17" s="5"/>
@@ -5519,49 +6210,29 @@
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="14">
-        <v>40</v>
-      </c>
-      <c r="D18" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="4"/>
-      <c r="J18" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="5"/>
-      <c r="P18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P18" s="3"/>
       <c r="Q18" s="5"/>
-      <c r="V18" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V18" s="3"/>
       <c r="W18" s="5"/>
-      <c r="AB18" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="5"/>
-      <c r="AH18" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH18" s="4"/>
       <c r="AI18" s="5"/>
       <c r="AN18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO18" s="5"/>
       <c r="AT18" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA18" s="5"/>
@@ -5585,49 +6256,29 @@
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="14">
-        <v>40</v>
-      </c>
-      <c r="D19" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="4"/>
-      <c r="J19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="5"/>
-      <c r="P19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P19" s="3"/>
       <c r="Q19" s="5"/>
-      <c r="V19" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V19" s="3"/>
       <c r="W19" s="5"/>
-      <c r="AB19" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="3"/>
       <c r="AC19" s="5"/>
-      <c r="AH19" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH19" s="4"/>
       <c r="AI19" s="5"/>
       <c r="AN19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO19" s="5"/>
       <c r="AT19" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA19" s="5"/>
@@ -5651,49 +6302,29 @@
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="14">
-        <v>40</v>
-      </c>
-      <c r="D20" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
-      <c r="J20" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="P20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P20" s="3"/>
       <c r="Q20" s="5"/>
-      <c r="V20" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V20" s="3"/>
       <c r="W20" s="5"/>
-      <c r="AB20" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB20" s="3"/>
       <c r="AC20" s="5"/>
-      <c r="AH20" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH20" s="4"/>
       <c r="AI20" s="5"/>
       <c r="AN20" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO20" s="5"/>
       <c r="AT20" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA20" s="5"/>
@@ -5717,68 +6348,48 @@
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="14">
-        <v>40</v>
-      </c>
-      <c r="D21" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="5"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P21" s="3"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V21" s="3"/>
       <c r="W21" s="5"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB21" s="3"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH21" s="4"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO21" s="5"/>
@@ -5787,7 +6398,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
       <c r="AT21" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA21" s="5"/>
@@ -5811,68 +6422,48 @@
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="14">
-        <v>40</v>
-      </c>
-      <c r="D22" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P22" s="3"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V22" s="3"/>
       <c r="W22" s="5"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB22" s="3"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH22" s="4"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
       <c r="AN22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO22" s="5"/>
@@ -5881,7 +6472,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA22" s="5"/>
@@ -5905,68 +6496,48 @@
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="14">
-        <v>40</v>
-      </c>
-      <c r="D23" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V23" s="3"/>
       <c r="W23" s="5"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="3"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH23" s="4"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO23" s="5"/>
@@ -5975,7 +6546,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA23" s="5"/>
@@ -5999,68 +6570,48 @@
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="14">
-        <v>40</v>
-      </c>
-      <c r="D24" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V24" s="3"/>
       <c r="W24" s="5"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB24" s="3"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH24" s="4"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO24" s="5"/>
@@ -6069,7 +6620,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA24" s="5"/>
@@ -6093,68 +6644,48 @@
     </row>
     <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="14">
-        <v>40</v>
-      </c>
-      <c r="D25" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P25" s="3"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V25" s="3"/>
       <c r="W25" s="5"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-      <c r="AB25" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="3"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH25" s="4"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO25" s="5"/>
@@ -6163,7 +6694,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA25" s="5"/>
@@ -6187,68 +6718,48 @@
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="14">
-        <v>40</v>
-      </c>
-      <c r="D26" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V26" s="3"/>
       <c r="W26" s="5"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH26" s="4"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO26" s="5"/>
@@ -6257,7 +6768,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA26" s="5"/>
@@ -6281,68 +6792,48 @@
     </row>
     <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="14">
-        <v>40</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P27" s="3"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V27" s="3"/>
       <c r="W27" s="5"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB27" s="3"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH27" s="4"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
       <c r="AN27" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO27" s="5"/>
@@ -6351,7 +6842,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA27" s="5"/>
@@ -6375,68 +6866,48 @@
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="14">
-        <v>40</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V28" s="3"/>
       <c r="W28" s="5"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB28" s="3"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
-      <c r="AH28" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH28" s="4"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO28" s="5"/>
@@ -6445,7 +6916,7 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA28" s="5"/>
@@ -6463,68 +6934,48 @@
     </row>
     <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="14">
-        <v>40</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J29" s="4"/>
       <c r="K29" s="5"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P29" s="3"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V29" s="3"/>
       <c r="W29" s="5"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB29" s="3"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH29" s="4"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO29" s="5"/>
@@ -6533,7 +6984,7 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA29" s="5"/>
@@ -6551,68 +7002,48 @@
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="14">
-        <v>40</v>
-      </c>
-      <c r="D30" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="P30" s="3"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="V30" s="3"/>
       <c r="W30" s="5"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
-      <c r="AH30" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AH30" s="4"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO30" s="5"/>
@@ -6621,7 +7052,7 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BA30" s="5"/>
@@ -6639,7 +7070,7 @@
     </row>
     <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6649,10 +7080,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -6665,7 +7093,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC31" s="5"/>
@@ -6722,7 +7150,7 @@
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
     </row>
-    <row r="33" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -6732,26 +7160,98 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="AC33" s="5"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+      <c r="BL33" s="4"/>
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="4"/>
+      <c r="BO33" s="4"/>
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="4"/>
+      <c r="BR33" s="4"/>
+      <c r="BS33" s="4"/>
+      <c r="BT33" s="4"/>
+      <c r="BU33" s="4"/>
+      <c r="BV33" s="4"/>
+      <c r="BW33" s="4"/>
+      <c r="BX33" s="4"/>
+      <c r="BY33" s="4"/>
+      <c r="BZ33" s="4"/>
+      <c r="CA33" s="4"/>
+      <c r="CB33" s="4"/>
+      <c r="CC33" s="4"/>
+      <c r="CD33" s="4"/>
+      <c r="CE33" s="4"/>
+      <c r="CF33" s="4"/>
+      <c r="CG33" s="4"/>
+      <c r="CH33" s="4"/>
+      <c r="CI33" s="4"/>
+      <c r="CJ33" s="4"/>
+      <c r="CK33" s="4"/>
+      <c r="CL33" s="4"/>
+      <c r="CM33" s="4"/>
+      <c r="CN33" s="4"/>
+      <c r="CO33" s="4"/>
+      <c r="CP33" s="4"/>
+      <c r="CQ33" s="4"/>
+      <c r="CR33" s="4"/>
+      <c r="CS33" s="4"/>
+      <c r="CT33" s="4"/>
+      <c r="CU33" s="4"/>
+      <c r="CV33" s="4"/>
     </row>
-    <row r="34" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -6780,7 +7280,7 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
     </row>
-    <row r="35" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -6809,7 +7309,7 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
     </row>
-    <row r="36" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -6880,7 +7380,7 @@
       <c r="BW36" s="4"/>
       <c r="BX36" s="4"/>
     </row>
-    <row r="37" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -6909,7 +7409,7 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
     </row>
-    <row r="38" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -6938,7 +7438,7 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
     </row>
-    <row r="39" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -6967,7 +7467,7 @@
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
     </row>
-    <row r="40" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -6996,7 +7496,7 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
     </row>
-    <row r="41" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -7025,7 +7525,7 @@
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
     </row>
-    <row r="42" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -7054,7 +7554,7 @@
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
     </row>
-    <row r="43" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -7083,7 +7583,7 @@
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
     </row>
-    <row r="44" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -7112,7 +7612,7 @@
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
     </row>
-    <row r="45" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -7141,7 +7641,7 @@
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
     </row>
-    <row r="46" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -7170,7 +7670,7 @@
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
     </row>
-    <row r="47" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -7199,7 +7699,7 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
     </row>
-    <row r="48" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -7549,6 +8049,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BM1:BR1"/>
+    <mergeCell ref="BY1:CD1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG1:BL1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="DC1:DH1"/>
     <mergeCell ref="DI1:DN1"/>
     <mergeCell ref="CE1:CJ1"/>
@@ -7556,18 +8068,6 @@
     <mergeCell ref="BS1:BX1"/>
     <mergeCell ref="CQ1:CV1"/>
     <mergeCell ref="CW1:DB1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="BM1:BR1"/>
-    <mergeCell ref="BY1:CD1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AO1:AT1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG1:BL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
